--- a/feature_extraction/feature/p2-fro_degreedata.xlsx
+++ b/feature_extraction/feature/p2-fro_degreedata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="484">
   <si>
     <t>nodes</t>
   </si>
@@ -25,1429 +25,1447 @@
     <t>degree</t>
   </si>
   <si>
-    <t>(431, 545)</t>
-  </si>
-  <si>
-    <t>(436, 547)</t>
-  </si>
-  <si>
-    <t>(439, 558)</t>
-  </si>
-  <si>
-    <t>(445, 557)</t>
-  </si>
-  <si>
-    <t>(445, 603)</t>
-  </si>
-  <si>
-    <t>(447, 616)</t>
-  </si>
-  <si>
-    <t>(449, 611)</t>
-  </si>
-  <si>
-    <t>(452, 500)</t>
-  </si>
-  <si>
-    <t>(454, 610)</t>
-  </si>
-  <si>
-    <t>(455, 549)</t>
-  </si>
-  <si>
-    <t>(455, 623)</t>
-  </si>
-  <si>
-    <t>(458, 554)</t>
-  </si>
-  <si>
-    <t>(458, 596)</t>
-  </si>
-  <si>
-    <t>(459, 512)</t>
-  </si>
-  <si>
-    <t>(460, 533)</t>
-  </si>
-  <si>
-    <t>(460, 570)</t>
-  </si>
-  <si>
-    <t>(460, 620)</t>
-  </si>
-  <si>
-    <t>(461, 542)</t>
-  </si>
-  <si>
-    <t>(461, 564)</t>
-  </si>
-  <si>
-    <t>(461, 631)</t>
-  </si>
-  <si>
-    <t>(462, 550)</t>
-  </si>
-  <si>
-    <t>(462, 588)</t>
-  </si>
-  <si>
-    <t>(463, 506)</t>
-  </si>
-  <si>
-    <t>(463, 626)</t>
-  </si>
-  <si>
-    <t>(466, 513)</t>
-  </si>
-  <si>
-    <t>(466, 520)</t>
-  </si>
-  <si>
-    <t>(466, 530)</t>
-  </si>
-  <si>
-    <t>(467, 632)</t>
-  </si>
-  <si>
-    <t>(468, 542)</t>
-  </si>
-  <si>
-    <t>(469, 563)</t>
-  </si>
-  <si>
-    <t>(469, 607)</t>
-  </si>
-  <si>
-    <t>(470, 558)</t>
-  </si>
-  <si>
-    <t>(471, 519)</t>
-  </si>
-  <si>
-    <t>(472, 561)</t>
-  </si>
-  <si>
-    <t>(472, 614)</t>
-  </si>
-  <si>
-    <t>(473, 520)</t>
-  </si>
-  <si>
-    <t>(474, 506)</t>
-  </si>
-  <si>
-    <t>(474, 608)</t>
-  </si>
-  <si>
-    <t>(475, 573)</t>
-  </si>
-  <si>
-    <t>(475, 634)</t>
-  </si>
-  <si>
-    <t>(477, 602)</t>
-  </si>
-  <si>
-    <t>(477, 657)</t>
-  </si>
-  <si>
-    <t>(478, 511)</t>
-  </si>
-  <si>
-    <t>(479, 621)</t>
-  </si>
-  <si>
-    <t>(481, 628)</t>
-  </si>
-  <si>
-    <t>(481, 661)</t>
-  </si>
-  <si>
-    <t>(482, 562)</t>
-  </si>
-  <si>
-    <t>(482, 610)</t>
-  </si>
-  <si>
-    <t>(483, 520)</t>
-  </si>
-  <si>
-    <t>(484, 600)</t>
-  </si>
-  <si>
-    <t>(486, 536)</t>
-  </si>
-  <si>
-    <t>(487, 497)</t>
-  </si>
-  <si>
-    <t>(488, 494)</t>
-  </si>
-  <si>
-    <t>(488, 513)</t>
-  </si>
-  <si>
-    <t>(489, 541)</t>
-  </si>
-  <si>
-    <t>(489, 602)</t>
-  </si>
-  <si>
-    <t>(489, 608)</t>
-  </si>
-  <si>
-    <t>(491, 531)</t>
-  </si>
-  <si>
-    <t>(491, 574)</t>
-  </si>
-  <si>
-    <t>(491, 662)</t>
-  </si>
-  <si>
-    <t>(494, 676)</t>
-  </si>
-  <si>
-    <t>(495, 568)</t>
-  </si>
-  <si>
-    <t>(495, 600)</t>
-  </si>
-  <si>
-    <t>(496, 625)</t>
-  </si>
-  <si>
-    <t>(496, 671)</t>
-  </si>
-  <si>
-    <t>(497, 648)</t>
-  </si>
-  <si>
-    <t>(498, 491)</t>
-  </si>
-  <si>
-    <t>(499, 510)</t>
-  </si>
-  <si>
-    <t>(499, 642)</t>
-  </si>
-  <si>
-    <t>(500, 610)</t>
-  </si>
-  <si>
-    <t>(500, 633)</t>
-  </si>
-  <si>
-    <t>(501, 505)</t>
-  </si>
-  <si>
-    <t>(502, 520)</t>
-  </si>
-  <si>
-    <t>(502, 537)</t>
-  </si>
-  <si>
-    <t>(502, 601)</t>
-  </si>
-  <si>
-    <t>(502, 625)</t>
-  </si>
-  <si>
-    <t>(502, 649)</t>
-  </si>
-  <si>
-    <t>(502, 655)</t>
-  </si>
-  <si>
-    <t>(504, 472)</t>
-  </si>
-  <si>
-    <t>(504, 490)</t>
-  </si>
-  <si>
-    <t>(504, 530)</t>
-  </si>
-  <si>
-    <t>(504, 555)</t>
-  </si>
-  <si>
-    <t>(504, 595)</t>
-  </si>
-  <si>
-    <t>(505, 485)</t>
-  </si>
-  <si>
-    <t>(507, 459)</t>
-  </si>
-  <si>
-    <t>(507, 518)</t>
-  </si>
-  <si>
-    <t>(507, 585)</t>
-  </si>
-  <si>
-    <t>(508, 441)</t>
-  </si>
-  <si>
-    <t>(508, 550)</t>
-  </si>
-  <si>
-    <t>(508, 563)</t>
-  </si>
-  <si>
-    <t>(509, 449)</t>
-  </si>
-  <si>
-    <t>(509, 471)</t>
-  </si>
-  <si>
-    <t>(509, 696)</t>
-  </si>
-  <si>
-    <t>(510, 502)</t>
-  </si>
-  <si>
-    <t>(510, 542)</t>
-  </si>
-  <si>
-    <t>(511, 516)</t>
-  </si>
-  <si>
-    <t>(511, 548)</t>
-  </si>
-  <si>
-    <t>(511, 604)</t>
-  </si>
-  <si>
-    <t>(511, 624)</t>
-  </si>
-  <si>
-    <t>(511, 627)</t>
-  </si>
-  <si>
-    <t>(512, 600)</t>
-  </si>
-  <si>
-    <t>(512, 649)</t>
-  </si>
-  <si>
-    <t>(513, 684)</t>
-  </si>
-  <si>
-    <t>(515, 663)</t>
-  </si>
-  <si>
-    <t>(516, 457)</t>
-  </si>
-  <si>
-    <t>(516, 568)</t>
-  </si>
-  <si>
-    <t>(517, 651)</t>
-  </si>
-  <si>
-    <t>(517, 698)</t>
-  </si>
-  <si>
-    <t>(518, 469)</t>
-  </si>
-  <si>
-    <t>(519, 464)</t>
-  </si>
-  <si>
-    <t>(519, 477)</t>
-  </si>
-  <si>
-    <t>(519, 521)</t>
-  </si>
-  <si>
-    <t>(519, 581)</t>
-  </si>
-  <si>
-    <t>(520, 690)</t>
-  </si>
-  <si>
-    <t>(521, 607)</t>
-  </si>
-  <si>
-    <t>(522, 596)</t>
-  </si>
-  <si>
-    <t>(523, 499)</t>
-  </si>
-  <si>
-    <t>(523, 667)</t>
-  </si>
-  <si>
-    <t>(524, 617)</t>
-  </si>
-  <si>
-    <t>(525, 513)</t>
-  </si>
-  <si>
-    <t>(525, 533)</t>
-  </si>
-  <si>
-    <t>(525, 569)</t>
-  </si>
-  <si>
-    <t>(525, 576)</t>
-  </si>
-  <si>
-    <t>(525, 659)</t>
-  </si>
-  <si>
-    <t>(526, 518)</t>
-  </si>
-  <si>
-    <t>(526, 581)</t>
-  </si>
-  <si>
-    <t>(527, 442)</t>
-  </si>
-  <si>
-    <t>(528, 537)</t>
-  </si>
-  <si>
-    <t>(528, 594)</t>
-  </si>
-  <si>
-    <t>(529, 543)</t>
-  </si>
-  <si>
-    <t>(530, 460)</t>
-  </si>
-  <si>
-    <t>(530, 577)</t>
-  </si>
-  <si>
-    <t>(530, 603)</t>
-  </si>
-  <si>
-    <t>(531, 480)</t>
-  </si>
-  <si>
-    <t>(531, 675)</t>
-  </si>
-  <si>
-    <t>(531, 695)</t>
-  </si>
-  <si>
-    <t>(532, 549)</t>
-  </si>
-  <si>
-    <t>(533, 507)</t>
-  </si>
-  <si>
-    <t>(533, 584)</t>
-  </si>
-  <si>
-    <t>(533, 597)</t>
-  </si>
-  <si>
-    <t>(533, 616)</t>
-  </si>
-  <si>
-    <t>(533, 686)</t>
-  </si>
-  <si>
-    <t>(534, 447)</t>
-  </si>
-  <si>
-    <t>(534, 475)</t>
-  </si>
-  <si>
-    <t>(534, 493)</t>
-  </si>
-  <si>
-    <t>(534, 627)</t>
-  </si>
-  <si>
-    <t>(534, 663)</t>
-  </si>
-  <si>
-    <t>(535, 500)</t>
-  </si>
-  <si>
-    <t>(535, 700)</t>
-  </si>
-  <si>
-    <t>(536, 452)</t>
-  </si>
-  <si>
-    <t>(536, 485)</t>
-  </si>
-  <si>
-    <t>(536, 557)</t>
-  </si>
-  <si>
-    <t>(537, 568)</t>
-  </si>
-  <si>
-    <t>(537, 579)</t>
-  </si>
-  <si>
-    <t>(539, 687)</t>
-  </si>
-  <si>
-    <t>(540, 613)</t>
-  </si>
-  <si>
-    <t>(540, 649)</t>
-  </si>
-  <si>
-    <t>(541, 656)</t>
-  </si>
-  <si>
-    <t>(541, 671)</t>
-  </si>
-  <si>
-    <t>(542, 457)</t>
-  </si>
-  <si>
-    <t>(542, 513)</t>
-  </si>
-  <si>
-    <t>(542, 592)</t>
-  </si>
-  <si>
-    <t>(542, 601)</t>
-  </si>
-  <si>
-    <t>(542, 616)</t>
-  </si>
-  <si>
-    <t>(542, 647)</t>
-  </si>
-  <si>
-    <t>(542, 700)</t>
-  </si>
-  <si>
-    <t>(543, 491)</t>
-  </si>
-  <si>
-    <t>(543, 502)</t>
-  </si>
-  <si>
-    <t>(543, 508)</t>
-  </si>
-  <si>
-    <t>(543, 563)</t>
-  </si>
-  <si>
-    <t>(544, 526)</t>
-  </si>
-  <si>
-    <t>(544, 653)</t>
-  </si>
-  <si>
-    <t>(544, 662)</t>
-  </si>
-  <si>
-    <t>(544, 676)</t>
-  </si>
-  <si>
-    <t>(545, 540)</t>
-  </si>
-  <si>
-    <t>(545, 681)</t>
-  </si>
-  <si>
-    <t>(546, 628)</t>
-  </si>
-  <si>
-    <t>(546, 701)</t>
-  </si>
-  <si>
-    <t>(547, 570)</t>
-  </si>
-  <si>
-    <t>(547, 600)</t>
-  </si>
-  <si>
-    <t>(547, 615)</t>
-  </si>
-  <si>
-    <t>(547, 642)</t>
-  </si>
-  <si>
-    <t>(548, 464)</t>
-  </si>
-  <si>
-    <t>(548, 495)</t>
-  </si>
-  <si>
-    <t>(548, 514)</t>
-  </si>
-  <si>
-    <t>(548, 691)</t>
-  </si>
-  <si>
-    <t>(548, 705)</t>
-  </si>
-  <si>
-    <t>(549, 484)</t>
-  </si>
-  <si>
-    <t>(549, 557)</t>
-  </si>
-  <si>
-    <t>(549, 662)</t>
-  </si>
-  <si>
-    <t>(550, 456)</t>
-  </si>
-  <si>
-    <t>(550, 655)</t>
-  </si>
-  <si>
-    <t>(550, 713)</t>
-  </si>
-  <si>
-    <t>(551, 469)</t>
-  </si>
-  <si>
-    <t>(551, 642)</t>
-  </si>
-  <si>
-    <t>(552, 451)</t>
-  </si>
-  <si>
-    <t>(552, 464)</t>
-  </si>
-  <si>
-    <t>(552, 592)</t>
-  </si>
-  <si>
-    <t>(552, 621)</t>
-  </si>
-  <si>
-    <t>(553, 561)</t>
-  </si>
-  <si>
-    <t>(553, 627)</t>
-  </si>
-  <si>
-    <t>(554, 534)</t>
-  </si>
-  <si>
-    <t>(554, 608)</t>
-  </si>
-  <si>
-    <t>(554, 672)</t>
-  </si>
-  <si>
-    <t>(554, 696)</t>
-  </si>
-  <si>
-    <t>(555, 476)</t>
-  </si>
-  <si>
-    <t>(555, 599)</t>
-  </si>
-  <si>
-    <t>(555, 657)</t>
-  </si>
-  <si>
-    <t>(555, 716)</t>
-  </si>
-  <si>
-    <t>(556, 636)</t>
-  </si>
-  <si>
-    <t>(557, 650)</t>
-  </si>
-  <si>
-    <t>(557, 668)</t>
-  </si>
-  <si>
-    <t>(558, 489)</t>
-  </si>
-  <si>
-    <t>(558, 545)</t>
-  </si>
-  <si>
-    <t>(558, 624)</t>
-  </si>
-  <si>
-    <t>(559, 453)</t>
-  </si>
-  <si>
-    <t>(559, 613)</t>
-  </si>
-  <si>
-    <t>(560, 499)</t>
-  </si>
-  <si>
-    <t>(560, 514)</t>
-  </si>
-  <si>
-    <t>(560, 560)</t>
-  </si>
-  <si>
-    <t>(560, 589)</t>
-  </si>
-  <si>
-    <t>(560, 596)</t>
-  </si>
-  <si>
-    <t>(561, 672)</t>
-  </si>
-  <si>
-    <t>(562, 522)</t>
-  </si>
-  <si>
-    <t>(562, 552)</t>
-  </si>
-  <si>
-    <t>(563, 458)</t>
-  </si>
-  <si>
-    <t>(563, 530)</t>
-  </si>
-  <si>
-    <t>(563, 544)</t>
-  </si>
-  <si>
-    <t>(563, 665)</t>
-  </si>
-  <si>
-    <t>(563, 683)</t>
-  </si>
-  <si>
-    <t>(564, 453)</t>
-  </si>
-  <si>
-    <t>(564, 538)</t>
-  </si>
-  <si>
-    <t>(565, 472)</t>
-  </si>
-  <si>
-    <t>(565, 609)</t>
-  </si>
-  <si>
-    <t>(565, 634)</t>
-  </si>
-  <si>
-    <t>(565, 646)</t>
-  </si>
-  <si>
-    <t>(565, 711)</t>
-  </si>
-  <si>
-    <t>(566, 466)</t>
-  </si>
-  <si>
-    <t>(566, 479)</t>
-  </si>
-  <si>
-    <t>(566, 516)</t>
-  </si>
-  <si>
-    <t>(566, 640)</t>
-  </si>
-  <si>
-    <t>(566, 656)</t>
-  </si>
-  <si>
-    <t>(567, 498)</t>
-  </si>
-  <si>
-    <t>(567, 601)</t>
-  </si>
-  <si>
-    <t>(568, 546)</t>
-  </si>
-  <si>
-    <t>(569, 509)</t>
-  </si>
-  <si>
-    <t>(569, 627)</t>
-  </si>
-  <si>
-    <t>(569, 690)</t>
-  </si>
-  <si>
-    <t>(569, 700)</t>
-  </si>
-  <si>
-    <t>(570, 561)</t>
-  </si>
-  <si>
-    <t>(571, 470)</t>
-  </si>
-  <si>
-    <t>(572, 515)</t>
-  </si>
-  <si>
-    <t>(572, 618)</t>
-  </si>
-  <si>
-    <t>(572, 657)</t>
-  </si>
-  <si>
-    <t>(574, 692)</t>
-  </si>
-  <si>
-    <t>(575, 502)</t>
-  </si>
-  <si>
-    <t>(575, 510)</t>
-  </si>
-  <si>
-    <t>(575, 580)</t>
-  </si>
-  <si>
-    <t>(576, 553)</t>
-  </si>
-  <si>
-    <t>(577, 529)</t>
-  </si>
-  <si>
-    <t>(578, 477)</t>
-  </si>
-  <si>
-    <t>(578, 527)</t>
-  </si>
-  <si>
-    <t>(578, 683)</t>
-  </si>
-  <si>
-    <t>(579, 576)</t>
-  </si>
-  <si>
-    <t>(579, 624)</t>
-  </si>
-  <si>
-    <t>(579, 709)</t>
-  </si>
-  <si>
-    <t>(580, 666)</t>
-  </si>
-  <si>
-    <t>(581, 494)</t>
-  </si>
-  <si>
-    <t>(581, 544)</t>
-  </si>
-  <si>
-    <t>(581, 678)</t>
-  </si>
-  <si>
-    <t>(581, 697)</t>
-  </si>
-  <si>
-    <t>(582, 523)</t>
-  </si>
-  <si>
-    <t>(582, 607)</t>
-  </si>
-  <si>
-    <t>(582, 650)</t>
-  </si>
-  <si>
-    <t>(582, 688)</t>
-  </si>
-  <si>
-    <t>(583, 510)</t>
-  </si>
-  <si>
-    <t>(584, 472)</t>
-  </si>
-  <si>
-    <t>(584, 642)</t>
-  </si>
-  <si>
-    <t>(584, 707)</t>
-  </si>
-  <si>
-    <t>(586, 581)</t>
-  </si>
-  <si>
-    <t>(587, 550)</t>
-  </si>
-  <si>
-    <t>(587, 637)</t>
-  </si>
-  <si>
-    <t>(588, 568)</t>
-  </si>
-  <si>
-    <t>(588, 696)</t>
-  </si>
-  <si>
-    <t>(589, 593)</t>
-  </si>
-  <si>
-    <t>(590, 559)</t>
-  </si>
-  <si>
-    <t>(590, 615)</t>
-  </si>
-  <si>
-    <t>(590, 668)</t>
-  </si>
-  <si>
-    <t>(591, 578)</t>
-  </si>
-  <si>
-    <t>(591, 690)</t>
-  </si>
-  <si>
-    <t>(592, 456)</t>
-  </si>
-  <si>
-    <t>(592, 513)</t>
-  </si>
-  <si>
-    <t>(592, 653)</t>
-  </si>
-  <si>
-    <t>(592, 706)</t>
-  </si>
-  <si>
-    <t>(593, 532)</t>
-  </si>
-  <si>
-    <t>(594, 499)</t>
-  </si>
-  <si>
-    <t>(594, 545)</t>
-  </si>
-  <si>
-    <t>(595, 527)</t>
-  </si>
-  <si>
-    <t>(595, 598)</t>
-  </si>
-  <si>
-    <t>(596, 450)</t>
-  </si>
-  <si>
-    <t>(597, 515)</t>
-  </si>
-  <si>
-    <t>(598, 477)</t>
-  </si>
-  <si>
-    <t>(598, 487)</t>
-  </si>
-  <si>
-    <t>(598, 658)</t>
-  </si>
-  <si>
-    <t>(599, 572)</t>
-  </si>
-  <si>
-    <t>(600, 548)</t>
-  </si>
-  <si>
-    <t>(600, 610)</t>
-  </si>
-  <si>
-    <t>(601, 504)</t>
-  </si>
-  <si>
-    <t>(601, 519)</t>
-  </si>
-  <si>
-    <t>(602, 668)</t>
-  </si>
-  <si>
-    <t>(603, 581)</t>
-  </si>
-  <si>
-    <t>(603, 603)</t>
-  </si>
-  <si>
-    <t>(603, 616)</t>
-  </si>
-  <si>
-    <t>(603, 696)</t>
-  </si>
-  <si>
-    <t>(604, 591)</t>
-  </si>
-  <si>
-    <t>(604, 683)</t>
-  </si>
-  <si>
-    <t>(605, 462)</t>
-  </si>
-  <si>
-    <t>(605, 500)</t>
-  </si>
-  <si>
-    <t>(605, 512)</t>
-  </si>
-  <si>
-    <t>(605, 576)</t>
-  </si>
-  <si>
-    <t>(606, 474)</t>
-  </si>
-  <si>
-    <t>(606, 515)</t>
-  </si>
-  <si>
-    <t>(606, 569)</t>
-  </si>
-  <si>
-    <t>(607, 481)</t>
-  </si>
-  <si>
-    <t>(607, 490)</t>
-  </si>
-  <si>
-    <t>(607, 548)</t>
-  </si>
-  <si>
-    <t>(607, 557)</t>
-  </si>
-  <si>
-    <t>(608, 663)</t>
-  </si>
-  <si>
-    <t>(608, 684)</t>
-  </si>
-  <si>
-    <t>(608, 697)</t>
-  </si>
-  <si>
-    <t>(609, 655)</t>
-  </si>
-  <si>
-    <t>(609, 673)</t>
-  </si>
-  <si>
-    <t>(611, 567)</t>
-  </si>
-  <si>
-    <t>(611, 607)</t>
-  </si>
-  <si>
-    <t>(611, 617)</t>
-  </si>
-  <si>
-    <t>(611, 638)</t>
-  </si>
-  <si>
-    <t>(612, 690)</t>
-  </si>
-  <si>
-    <t>(613, 505)</t>
-  </si>
-  <si>
-    <t>(614, 514)</t>
-  </si>
-  <si>
-    <t>(615, 599)</t>
-  </si>
-  <si>
-    <t>(616, 534)</t>
-  </si>
-  <si>
-    <t>(616, 570)</t>
-  </si>
-  <si>
-    <t>(616, 664)</t>
-  </si>
-  <si>
-    <t>(617, 482)</t>
-  </si>
-  <si>
-    <t>(617, 499)</t>
-  </si>
-  <si>
-    <t>(617, 635)</t>
-  </si>
-  <si>
-    <t>(618, 452)</t>
-  </si>
-  <si>
-    <t>(618, 528)</t>
-  </si>
-  <si>
-    <t>(618, 580)</t>
-  </si>
-  <si>
-    <t>(619, 521)</t>
-  </si>
-  <si>
-    <t>(619, 629)</t>
-  </si>
-  <si>
-    <t>(619, 641)</t>
-  </si>
-  <si>
-    <t>(620, 593)</t>
-  </si>
-  <si>
-    <t>(621, 480)</t>
-  </si>
-  <si>
-    <t>(621, 488)</t>
-  </si>
-  <si>
-    <t>(621, 672)</t>
-  </si>
-  <si>
-    <t>(621, 682)</t>
-  </si>
-  <si>
-    <t>(622, 456)</t>
+    <t>(372, 483)</t>
+  </si>
+  <si>
+    <t>(374, 499)</t>
+  </si>
+  <si>
+    <t>(375, 494)</t>
+  </si>
+  <si>
+    <t>(376, 548)</t>
+  </si>
+  <si>
+    <t>(379, 535)</t>
+  </si>
+  <si>
+    <t>(380, 556)</t>
+  </si>
+  <si>
+    <t>(381, 541)</t>
+  </si>
+  <si>
+    <t>(383, 498)</t>
+  </si>
+  <si>
+    <t>(383, 551)</t>
+  </si>
+  <si>
+    <t>(385, 482)</t>
+  </si>
+  <si>
+    <t>(386, 435)</t>
+  </si>
+  <si>
+    <t>(387, 564)</t>
+  </si>
+  <si>
+    <t>(388, 559)</t>
+  </si>
+  <si>
+    <t>(390, 546)</t>
+  </si>
+  <si>
+    <t>(391, 477)</t>
+  </si>
+  <si>
+    <t>(394, 490)</t>
+  </si>
+  <si>
+    <t>(394, 516)</t>
+  </si>
+  <si>
+    <t>(394, 532)</t>
+  </si>
+  <si>
+    <t>(395, 464)</t>
+  </si>
+  <si>
+    <t>(396, 469)</t>
+  </si>
+  <si>
+    <t>(396, 506)</t>
+  </si>
+  <si>
+    <t>(396, 556)</t>
+  </si>
+  <si>
+    <t>(396, 567)</t>
+  </si>
+  <si>
+    <t>(397, 478)</t>
+  </si>
+  <si>
+    <t>(397, 500)</t>
+  </si>
+  <si>
+    <t>(398, 486)</t>
+  </si>
+  <si>
+    <t>(398, 524)</t>
+  </si>
+  <si>
+    <t>(399, 442)</t>
+  </si>
+  <si>
+    <t>(399, 562)</t>
+  </si>
+  <si>
+    <t>(401, 449)</t>
+  </si>
+  <si>
+    <t>(402, 457)</t>
+  </si>
+  <si>
+    <t>(402, 466)</t>
+  </si>
+  <si>
+    <t>(403, 567)</t>
+  </si>
+  <si>
+    <t>(404, 478)</t>
+  </si>
+  <si>
+    <t>(404, 503)</t>
+  </si>
+  <si>
+    <t>(405, 498)</t>
+  </si>
+  <si>
+    <t>(405, 543)</t>
+  </si>
+  <si>
+    <t>(406, 494)</t>
+  </si>
+  <si>
+    <t>(406, 513)</t>
+  </si>
+  <si>
+    <t>(408, 497)</t>
+  </si>
+  <si>
+    <t>(408, 550)</t>
+  </si>
+  <si>
+    <t>(410, 442)</t>
+  </si>
+  <si>
+    <t>(410, 544)</t>
+  </si>
+  <si>
+    <t>(410, 572)</t>
+  </si>
+  <si>
+    <t>(411, 503)</t>
+  </si>
+  <si>
+    <t>(412, 447)</t>
+  </si>
+  <si>
+    <t>(413, 538)</t>
+  </si>
+  <si>
+    <t>(415, 557)</t>
+  </si>
+  <si>
+    <t>(417, 564)</t>
+  </si>
+  <si>
+    <t>(418, 498)</t>
+  </si>
+  <si>
+    <t>(418, 546)</t>
+  </si>
+  <si>
+    <t>(419, 456)</t>
+  </si>
+  <si>
+    <t>(420, 450)</t>
+  </si>
+  <si>
+    <t>(420, 536)</t>
+  </si>
+  <si>
+    <t>(422, 472)</t>
+  </si>
+  <si>
+    <t>(424, 430)</t>
+  </si>
+  <si>
+    <t>(425, 477)</t>
+  </si>
+  <si>
+    <t>(425, 538)</t>
+  </si>
+  <si>
+    <t>(425, 544)</t>
+  </si>
+  <si>
+    <t>(426, 418)</t>
+  </si>
+  <si>
+    <t>(426, 439)</t>
+  </si>
+  <si>
+    <t>(427, 510)</t>
+  </si>
+  <si>
+    <t>(428, 440)</t>
+  </si>
+  <si>
+    <t>(428, 464)</t>
+  </si>
+  <si>
+    <t>(430, 612)</t>
+  </si>
+  <si>
+    <t>(431, 504)</t>
+  </si>
+  <si>
+    <t>(431, 536)</t>
+  </si>
+  <si>
+    <t>(432, 607)</t>
+  </si>
+  <si>
+    <t>(433, 564)</t>
+  </si>
+  <si>
+    <t>(434, 427)</t>
+  </si>
+  <si>
+    <t>(435, 515)</t>
+  </si>
+  <si>
+    <t>(435, 577)</t>
+  </si>
+  <si>
+    <t>(436, 546)</t>
+  </si>
+  <si>
+    <t>(436, 569)</t>
+  </si>
+  <si>
+    <t>(437, 441)</t>
+  </si>
+  <si>
+    <t>(438, 456)</t>
+  </si>
+  <si>
+    <t>(438, 473)</t>
+  </si>
+  <si>
+    <t>(438, 516)</t>
+  </si>
+  <si>
+    <t>(438, 537)</t>
+  </si>
+  <si>
+    <t>(438, 561)</t>
+  </si>
+  <si>
+    <t>(438, 585)</t>
+  </si>
+  <si>
+    <t>(438, 591)</t>
+  </si>
+  <si>
+    <t>(440, 408)</t>
+  </si>
+  <si>
+    <t>(440, 466)</t>
+  </si>
+  <si>
+    <t>(440, 491)</t>
+  </si>
+  <si>
+    <t>(440, 532)</t>
+  </si>
+  <si>
+    <t>(440, 550)</t>
+  </si>
+  <si>
+    <t>(441, 426)</t>
+  </si>
+  <si>
+    <t>(441, 599)</t>
+  </si>
+  <si>
+    <t>(443, 395)</t>
+  </si>
+  <si>
+    <t>(443, 454)</t>
+  </si>
+  <si>
+    <t>(443, 522)</t>
+  </si>
+  <si>
+    <t>(444, 502)</t>
+  </si>
+  <si>
+    <t>(444, 586)</t>
+  </si>
+  <si>
+    <t>(445, 386)</t>
+  </si>
+  <si>
+    <t>(446, 488)</t>
+  </si>
+  <si>
+    <t>(446, 545)</t>
+  </si>
+  <si>
+    <t>(446, 559)</t>
+  </si>
+  <si>
+    <t>(446, 603)</t>
+  </si>
+  <si>
+    <t>(446, 633)</t>
+  </si>
+  <si>
+    <t>(447, 482)</t>
+  </si>
+  <si>
+    <t>(448, 451)</t>
+  </si>
+  <si>
+    <t>(450, 503)</t>
+  </si>
+  <si>
+    <t>(450, 533)</t>
+  </si>
+  <si>
+    <t>(450, 584)</t>
+  </si>
+  <si>
+    <t>(451, 454)</t>
+  </si>
+  <si>
+    <t>(451, 572)</t>
+  </si>
+  <si>
+    <t>(452, 393)</t>
+  </si>
+  <si>
+    <t>(452, 494)</t>
+  </si>
+  <si>
+    <t>(452, 545)</t>
+  </si>
+  <si>
+    <t>(452, 596)</t>
+  </si>
+  <si>
+    <t>(453, 422)</t>
+  </si>
+  <si>
+    <t>(453, 624)</t>
+  </si>
+  <si>
+    <t>(455, 400)</t>
+  </si>
+  <si>
+    <t>(455, 413)</t>
+  </si>
+  <si>
+    <t>(455, 517)</t>
+  </si>
+  <si>
+    <t>(456, 626)</t>
+  </si>
+  <si>
+    <t>(458, 532)</t>
+  </si>
+  <si>
+    <t>(459, 435)</t>
+  </si>
+  <si>
+    <t>(459, 472)</t>
+  </si>
+  <si>
+    <t>(459, 603)</t>
+  </si>
+  <si>
+    <t>(460, 553)</t>
+  </si>
+  <si>
+    <t>(461, 458)</t>
+  </si>
+  <si>
+    <t>(461, 467)</t>
+  </si>
+  <si>
+    <t>(461, 505)</t>
+  </si>
+  <si>
+    <t>(461, 595)</t>
+  </si>
+  <si>
+    <t>(462, 454)</t>
+  </si>
+  <si>
+    <t>(462, 463)</t>
+  </si>
+  <si>
+    <t>(462, 517)</t>
+  </si>
+  <si>
+    <t>(464, 385)</t>
+  </si>
+  <si>
+    <t>(464, 473)</t>
+  </si>
+  <si>
+    <t>(464, 530)</t>
+  </si>
+  <si>
+    <t>(465, 479)</t>
+  </si>
+  <si>
+    <t>(466, 396)</t>
+  </si>
+  <si>
+    <t>(466, 512)</t>
+  </si>
+  <si>
+    <t>(466, 539)</t>
+  </si>
+  <si>
+    <t>(467, 416)</t>
+  </si>
+  <si>
+    <t>(467, 611)</t>
+  </si>
+  <si>
+    <t>(467, 631)</t>
+  </si>
+  <si>
+    <t>(468, 447)</t>
+  </si>
+  <si>
+    <t>(468, 485)</t>
+  </si>
+  <si>
+    <t>(469, 520)</t>
+  </si>
+  <si>
+    <t>(469, 533)</t>
+  </si>
+  <si>
+    <t>(469, 552)</t>
+  </si>
+  <si>
+    <t>(469, 622)</t>
+  </si>
+  <si>
+    <t>(470, 411)</t>
+  </si>
+  <si>
+    <t>(470, 429)</t>
+  </si>
+  <si>
+    <t>(470, 563)</t>
+  </si>
+  <si>
+    <t>(470, 599)</t>
+  </si>
+  <si>
+    <t>(472, 388)</t>
+  </si>
+  <si>
+    <t>(472, 421)</t>
+  </si>
+  <si>
+    <t>(472, 493)</t>
+  </si>
+  <si>
+    <t>(472, 640)</t>
+  </si>
+  <si>
+    <t>(473, 516)</t>
+  </si>
+  <si>
+    <t>(473, 634)</t>
+  </si>
+  <si>
+    <t>(475, 623)</t>
+  </si>
+  <si>
+    <t>(476, 549)</t>
+  </si>
+  <si>
+    <t>(477, 592)</t>
+  </si>
+  <si>
+    <t>(477, 607)</t>
+  </si>
+  <si>
+    <t>(478, 393)</t>
+  </si>
+  <si>
+    <t>(478, 528)</t>
+  </si>
+  <si>
+    <t>(478, 537)</t>
+  </si>
+  <si>
+    <t>(478, 552)</t>
+  </si>
+  <si>
+    <t>(479, 427)</t>
+  </si>
+  <si>
+    <t>(479, 438)</t>
+  </si>
+  <si>
+    <t>(479, 444)</t>
+  </si>
+  <si>
+    <t>(479, 499)</t>
+  </si>
+  <si>
+    <t>(480, 462)</t>
+  </si>
+  <si>
+    <t>(480, 572)</t>
+  </si>
+  <si>
+    <t>(480, 598)</t>
+  </si>
+  <si>
+    <t>(480, 612)</t>
+  </si>
+  <si>
+    <t>(481, 476)</t>
+  </si>
+  <si>
+    <t>(481, 617)</t>
+  </si>
+  <si>
+    <t>(482, 564)</t>
+  </si>
+  <si>
+    <t>(482, 596)</t>
+  </si>
+  <si>
+    <t>(482, 637)</t>
+  </si>
+  <si>
+    <t>(483, 506)</t>
+  </si>
+  <si>
+    <t>(483, 536)</t>
+  </si>
+  <si>
+    <t>(483, 551)</t>
+  </si>
+  <si>
+    <t>(483, 579)</t>
+  </si>
+  <si>
+    <t>(483, 629)</t>
+  </si>
+  <si>
+    <t>(484, 400)</t>
+  </si>
+  <si>
+    <t>(484, 431)</t>
+  </si>
+  <si>
+    <t>(484, 450)</t>
+  </si>
+  <si>
+    <t>(485, 420)</t>
+  </si>
+  <si>
+    <t>(485, 640)</t>
+  </si>
+  <si>
+    <t>(486, 591)</t>
+  </si>
+  <si>
+    <t>(486, 645)</t>
+  </si>
+  <si>
+    <t>(486, 650)</t>
+  </si>
+  <si>
+    <t>(488, 388)</t>
+  </si>
+  <si>
+    <t>(488, 497)</t>
+  </si>
+  <si>
+    <t>(488, 528)</t>
+  </si>
+  <si>
+    <t>(488, 580)</t>
+  </si>
+  <si>
+    <t>(489, 401)</t>
+  </si>
+  <si>
+    <t>(489, 563)</t>
+  </si>
+  <si>
+    <t>(490, 470)</t>
+  </si>
+  <si>
+    <t>(490, 544)</t>
+  </si>
+  <si>
+    <t>(490, 556)</t>
+  </si>
+  <si>
+    <t>(490, 608)</t>
+  </si>
+  <si>
+    <t>(490, 632)</t>
+  </si>
+  <si>
+    <t>(491, 412)</t>
+  </si>
+  <si>
+    <t>(491, 593)</t>
+  </si>
+  <si>
+    <t>(491, 652)</t>
+  </si>
+  <si>
+    <t>(492, 432)</t>
+  </si>
+  <si>
+    <t>(492, 571)</t>
+  </si>
+  <si>
+    <t>(493, 586)</t>
+  </si>
+  <si>
+    <t>(493, 604)</t>
+  </si>
+  <si>
+    <t>(494, 425)</t>
+  </si>
+  <si>
+    <t>(494, 443)</t>
+  </si>
+  <si>
+    <t>(494, 481)</t>
+  </si>
+  <si>
+    <t>(495, 389)</t>
+  </si>
+  <si>
+    <t>(495, 491)</t>
+  </si>
+  <si>
+    <t>(495, 549)</t>
+  </si>
+  <si>
+    <t>(496, 435)</t>
+  </si>
+  <si>
+    <t>(496, 486)</t>
+  </si>
+  <si>
+    <t>(496, 496)</t>
+  </si>
+  <si>
+    <t>(496, 525)</t>
+  </si>
+  <si>
+    <t>(496, 532)</t>
+  </si>
+  <si>
+    <t>(497, 608)</t>
+  </si>
+  <si>
+    <t>(498, 458)</t>
+  </si>
+  <si>
+    <t>(498, 502)</t>
+  </si>
+  <si>
+    <t>(499, 394)</t>
+  </si>
+  <si>
+    <t>(499, 465)</t>
+  </si>
+  <si>
+    <t>(499, 601)</t>
+  </si>
+  <si>
+    <t>(499, 619)</t>
+  </si>
+  <si>
+    <t>(499, 638)</t>
+  </si>
+  <si>
+    <t>(500, 389)</t>
+  </si>
+  <si>
+    <t>(500, 577)</t>
+  </si>
+  <si>
+    <t>(501, 408)</t>
+  </si>
+  <si>
+    <t>(501, 545)</t>
+  </si>
+  <si>
+    <t>(501, 569)</t>
+  </si>
+  <si>
+    <t>(501, 647)</t>
+  </si>
+  <si>
+    <t>(502, 402)</t>
+  </si>
+  <si>
+    <t>(502, 415)</t>
+  </si>
+  <si>
+    <t>(502, 592)</t>
+  </si>
+  <si>
+    <t>(503, 434)</t>
+  </si>
+  <si>
+    <t>(503, 477)</t>
+  </si>
+  <si>
+    <t>(503, 537)</t>
+  </si>
+  <si>
+    <t>(503, 584)</t>
+  </si>
+  <si>
+    <t>(505, 557)</t>
+  </si>
+  <si>
+    <t>(505, 564)</t>
+  </si>
+  <si>
+    <t>(505, 627)</t>
+  </si>
+  <si>
+    <t>(506, 497)</t>
+  </si>
+  <si>
+    <t>(507, 406)</t>
+  </si>
+  <si>
+    <t>(507, 577)</t>
+  </si>
+  <si>
+    <t>(507, 651)</t>
+  </si>
+  <si>
+    <t>(508, 451)</t>
+  </si>
+  <si>
+    <t>(508, 488)</t>
+  </si>
+  <si>
+    <t>(508, 593)</t>
+  </si>
+  <si>
+    <t>(510, 553)</t>
+  </si>
+  <si>
+    <t>(510, 628)</t>
+  </si>
+  <si>
+    <t>(511, 434)</t>
+  </si>
+  <si>
+    <t>(511, 445)</t>
+  </si>
+  <si>
+    <t>(511, 518)</t>
+  </si>
+  <si>
+    <t>(511, 547)</t>
+  </si>
+  <si>
+    <t>(511, 621)</t>
+  </si>
+  <si>
+    <t>(513, 465)</t>
+  </si>
+  <si>
+    <t>(513, 579)</t>
+  </si>
+  <si>
+    <t>(515, 413)</t>
+  </si>
+  <si>
+    <t>(515, 560)</t>
+  </si>
+  <si>
+    <t>(516, 586)</t>
+  </si>
+  <si>
+    <t>(517, 430)</t>
+  </si>
+  <si>
+    <t>(517, 480)</t>
+  </si>
+  <si>
+    <t>(517, 633)</t>
+  </si>
+  <si>
+    <t>(518, 447)</t>
+  </si>
+  <si>
+    <t>(518, 459)</t>
+  </si>
+  <si>
+    <t>(518, 543)</t>
+  </si>
+  <si>
+    <t>(518, 624)</t>
+  </si>
+  <si>
+    <t>(519, 569)</t>
+  </si>
+  <si>
+    <t>(520, 408)</t>
+  </si>
+  <si>
+    <t>(520, 578)</t>
+  </si>
+  <si>
+    <t>(520, 639)</t>
+  </si>
+  <si>
+    <t>(522, 517)</t>
+  </si>
+  <si>
+    <t>(523, 486)</t>
+  </si>
+  <si>
+    <t>(524, 632)</t>
+  </si>
+  <si>
+    <t>(525, 505)</t>
+  </si>
+  <si>
+    <t>(525, 529)</t>
+  </si>
+  <si>
+    <t>(526, 495)</t>
+  </si>
+  <si>
+    <t>(526, 523)</t>
+  </si>
+  <si>
+    <t>(526, 551)</t>
+  </si>
+  <si>
+    <t>(526, 575)</t>
+  </si>
+  <si>
+    <t>(526, 604)</t>
+  </si>
+  <si>
+    <t>(527, 384)</t>
+  </si>
+  <si>
+    <t>(527, 514)</t>
+  </si>
+  <si>
+    <t>(527, 626)</t>
+  </si>
+  <si>
+    <t>(528, 392)</t>
+  </si>
+  <si>
+    <t>(528, 449)</t>
+  </si>
+  <si>
+    <t>(528, 589)</t>
+  </si>
+  <si>
+    <t>(529, 468)</t>
+  </si>
+  <si>
+    <t>(529, 642)</t>
+  </si>
+  <si>
+    <t>(530, 435)</t>
+  </si>
+  <si>
+    <t>(530, 481)</t>
+  </si>
+  <si>
+    <t>(531, 505)</t>
+  </si>
+  <si>
+    <t>(531, 534)</t>
+  </si>
+  <si>
+    <t>(532, 385)</t>
+  </si>
+  <si>
+    <t>(532, 463)</t>
+  </si>
+  <si>
+    <t>(534, 413)</t>
+  </si>
+  <si>
+    <t>(534, 423)</t>
+  </si>
+  <si>
+    <t>(534, 594)</t>
+  </si>
+  <si>
+    <t>(535, 509)</t>
+  </si>
+  <si>
+    <t>(536, 484)</t>
+  </si>
+  <si>
+    <t>(536, 546)</t>
+  </si>
+  <si>
+    <t>(536, 580)</t>
+  </si>
+  <si>
+    <t>(537, 442)</t>
+  </si>
+  <si>
+    <t>(537, 456)</t>
+  </si>
+  <si>
+    <t>(538, 604)</t>
+  </si>
+  <si>
+    <t>(539, 517)</t>
+  </si>
+  <si>
+    <t>(539, 539)</t>
+  </si>
+  <si>
+    <t>(539, 552)</t>
+  </si>
+  <si>
+    <t>(539, 632)</t>
+  </si>
+  <si>
+    <t>(540, 527)</t>
+  </si>
+  <si>
+    <t>(540, 561)</t>
+  </si>
+  <si>
+    <t>(540, 619)</t>
+  </si>
+  <si>
+    <t>(541, 398)</t>
+  </si>
+  <si>
+    <t>(541, 436)</t>
+  </si>
+  <si>
+    <t>(541, 448)</t>
+  </si>
+  <si>
+    <t>(541, 453)</t>
+  </si>
+  <si>
+    <t>(541, 512)</t>
+  </si>
+  <si>
+    <t>(541, 572)</t>
+  </si>
+  <si>
+    <t>(542, 410)</t>
+  </si>
+  <si>
+    <t>(543, 417)</t>
+  </si>
+  <si>
+    <t>(543, 426)</t>
+  </si>
+  <si>
+    <t>(543, 484)</t>
+  </si>
+  <si>
+    <t>(543, 493)</t>
+  </si>
+  <si>
+    <t>(543, 507)</t>
+  </si>
+  <si>
+    <t>(544, 521)</t>
+  </si>
+  <si>
+    <t>(544, 599)</t>
+  </si>
+  <si>
+    <t>(544, 620)</t>
+  </si>
+  <si>
+    <t>(545, 546)</t>
+  </si>
+  <si>
+    <t>(545, 576)</t>
+  </si>
+  <si>
+    <t>(545, 591)</t>
+  </si>
+  <si>
+    <t>(545, 609)</t>
+  </si>
+  <si>
+    <t>(547, 503)</t>
+  </si>
+  <si>
+    <t>(547, 553)</t>
+  </si>
+  <si>
+    <t>(547, 638)</t>
+  </si>
+  <si>
+    <t>(548, 442)</t>
+  </si>
+  <si>
+    <t>(548, 626)</t>
+  </si>
+  <si>
+    <t>(548, 632)</t>
+  </si>
+  <si>
+    <t>(549, 428)</t>
+  </si>
+  <si>
+    <t>(550, 451)</t>
+  </si>
+  <si>
+    <t>(551, 501)</t>
+  </si>
+  <si>
+    <t>(551, 535)</t>
+  </si>
+  <si>
+    <t>(552, 470)</t>
+  </si>
+  <si>
+    <t>(552, 600)</t>
+  </si>
+  <si>
+    <t>(553, 418)</t>
+  </si>
+  <si>
+    <t>(553, 435)</t>
+  </si>
+  <si>
+    <t>(553, 464)</t>
+  </si>
+  <si>
+    <t>(553, 572)</t>
+  </si>
+  <si>
+    <t>(554, 388)</t>
+  </si>
+  <si>
+    <t>(554, 516)</t>
+  </si>
+  <si>
+    <t>(555, 457)</t>
+  </si>
+  <si>
+    <t>(555, 565)</t>
+  </si>
+  <si>
+    <t>(556, 510)</t>
+  </si>
+  <si>
+    <t>(556, 529)</t>
+  </si>
+  <si>
+    <t>(557, 416)</t>
+  </si>
+  <si>
+    <t>(557, 424)</t>
+  </si>
+  <si>
+    <t>(557, 608)</t>
+  </si>
+  <si>
+    <t>(558, 392)</t>
+  </si>
+  <si>
+    <t>(558, 530)</t>
+  </si>
+  <si>
+    <t>(558, 552)</t>
+  </si>
+  <si>
+    <t>(558, 564)</t>
+  </si>
+  <si>
+    <t>(558, 600)</t>
+  </si>
+  <si>
+    <t>(560, 401)</t>
+  </si>
+  <si>
+    <t>(561, 387)</t>
+  </si>
+  <si>
+    <t>(561, 583)</t>
+  </si>
+  <si>
+    <t>(562, 423)</t>
+  </si>
+  <si>
+    <t>(562, 437)</t>
+  </si>
+  <si>
+    <t>(562, 490)</t>
+  </si>
+  <si>
+    <t>(563, 564)</t>
+  </si>
+  <si>
+    <t>(563, 574)</t>
+  </si>
+  <si>
+    <t>(563, 589)</t>
+  </si>
+  <si>
+    <t>(563, 624)</t>
+  </si>
+  <si>
+    <t>(564, 415)</t>
+  </si>
+  <si>
+    <t>(564, 539)</t>
+  </si>
+  <si>
+    <t>(565, 548)</t>
+  </si>
+  <si>
+    <t>(565, 635)</t>
+  </si>
+  <si>
+    <t>(566, 514)</t>
+  </si>
+  <si>
+    <t>(566, 599)</t>
+  </si>
+  <si>
+    <t>(567, 571)</t>
+  </si>
+  <si>
+    <t>(567, 583)</t>
+  </si>
+  <si>
+    <t>(568, 482)</t>
+  </si>
+  <si>
+    <t>(568, 585)</t>
+  </si>
+  <si>
+    <t>(569, 492)</t>
+  </si>
+  <si>
+    <t>(569, 624)</t>
+  </si>
+  <si>
+    <t>(571, 418)</t>
+  </si>
+  <si>
+    <t>(571, 540)</t>
+  </si>
+  <si>
+    <t>(571, 593)</t>
+  </si>
+  <si>
+    <t>(571, 611)</t>
+  </si>
+  <si>
+    <t>(574, 564)</t>
+  </si>
+  <si>
+    <t>(576, 489)</t>
+  </si>
+  <si>
+    <t>(577, 436)</t>
+  </si>
+  <si>
+    <t>(577, 509)</t>
+  </si>
+  <si>
+    <t>(577, 575)</t>
+  </si>
+  <si>
+    <t>(577, 604)</t>
+  </si>
+  <si>
+    <t>(578, 425)</t>
+  </si>
+  <si>
+    <t>(578, 590)</t>
+  </si>
+  <si>
+    <t>(579, 504)</t>
+  </si>
+  <si>
+    <t>(581, 394)</t>
+  </si>
+  <si>
+    <t>(581, 466)</t>
+  </si>
+  <si>
+    <t>(582, 515)</t>
+  </si>
+  <si>
+    <t>(583, 564)</t>
+  </si>
+  <si>
+    <t>(583, 580)</t>
+  </si>
+  <si>
+    <t>(584, 525)</t>
+  </si>
+  <si>
+    <t>(584, 569)</t>
+  </si>
+  <si>
+    <t>(588, 426)</t>
+  </si>
+  <si>
+    <t>(588, 498)</t>
+  </si>
+  <si>
+    <t>(588, 601)</t>
+  </si>
+  <si>
+    <t>(589, 472)</t>
+  </si>
+  <si>
+    <t>(589, 510)</t>
+  </si>
+  <si>
+    <t>(589, 550)</t>
+  </si>
+  <si>
+    <t>(589, 586)</t>
+  </si>
+  <si>
+    <t>(591, 490)</t>
+  </si>
+  <si>
+    <t>(593, 520)</t>
+  </si>
+  <si>
+    <t>(593, 609)</t>
+  </si>
+  <si>
+    <t>(594, 468)</t>
+  </si>
+  <si>
+    <t>(594, 557)</t>
+  </si>
+  <si>
+    <t>(594, 585)</t>
+  </si>
+  <si>
+    <t>(594, 613)</t>
+  </si>
+  <si>
+    <t>(595, 456)</t>
+  </si>
+  <si>
+    <t>(595, 459)</t>
+  </si>
+  <si>
+    <t>(595, 499)</t>
+  </si>
+  <si>
+    <t>(597, 566)</t>
+  </si>
+  <si>
+    <t>(597, 578)</t>
+  </si>
+  <si>
+    <t>(597, 628)</t>
+  </si>
+  <si>
+    <t>(598, 593)</t>
+  </si>
+  <si>
+    <t>(599, 490)</t>
+  </si>
+  <si>
+    <t>(600, 584)</t>
+  </si>
+  <si>
+    <t>(601, 488)</t>
+  </si>
+  <si>
+    <t>(601, 554)</t>
+  </si>
+  <si>
+    <t>(604, 510)</t>
+  </si>
+  <si>
+    <t>(604, 547)</t>
+  </si>
+  <si>
+    <t>(604, 549)</t>
+  </si>
+  <si>
+    <t>(604, 595)</t>
+  </si>
+  <si>
+    <t>(606, 601)</t>
+  </si>
+  <si>
+    <t>(607, 484)</t>
+  </si>
+  <si>
+    <t>(607, 607)</t>
+  </si>
+  <si>
+    <t>(608, 518)</t>
+  </si>
+  <si>
+    <t>(609, 500)</t>
+  </si>
+  <si>
+    <t>(609, 581)</t>
+  </si>
+  <si>
+    <t>(610, 558)</t>
+  </si>
+  <si>
+    <t>(611, 466)</t>
+  </si>
+  <si>
+    <t>(611, 512)</t>
+  </si>
+  <si>
+    <t>(611, 564)</t>
+  </si>
+  <si>
+    <t>(612, 457)</t>
+  </si>
+  <si>
+    <t>(613, 516)</t>
+  </si>
+  <si>
+    <t>(613, 577)</t>
+  </si>
+  <si>
+    <t>(617, 562)</t>
+  </si>
+  <si>
+    <t>(618, 464)</t>
+  </si>
+  <si>
+    <t>(619, 552)</t>
+  </si>
+  <si>
+    <t>(620, 612)</t>
+  </si>
+  <si>
+    <t>(621, 542)</t>
+  </si>
+  <si>
+    <t>(622, 575)</t>
   </si>
   <si>
     <t>(622, 594)</t>
   </si>
   <si>
-    <t>(622, 616)</t>
-  </si>
-  <si>
-    <t>(622, 628)</t>
-  </si>
-  <si>
-    <t>(622, 665)</t>
-  </si>
-  <si>
-    <t>(624, 464)</t>
-  </si>
-  <si>
-    <t>(625, 690)</t>
-  </si>
-  <si>
-    <t>(625, 696)</t>
-  </si>
-  <si>
-    <t>(626, 501)</t>
-  </si>
-  <si>
-    <t>(626, 554)</t>
-  </si>
-  <si>
-    <t>(627, 451)</t>
-  </si>
-  <si>
-    <t>(627, 537)</t>
-  </si>
-  <si>
-    <t>(627, 639)</t>
-  </si>
-  <si>
-    <t>(627, 653)</t>
-  </si>
-  <si>
-    <t>(628, 480)</t>
-  </si>
-  <si>
-    <t>(628, 603)</t>
-  </si>
-  <si>
-    <t>(629, 612)</t>
-  </si>
-  <si>
-    <t>(630, 486)</t>
-  </si>
-  <si>
-    <t>(630, 634)</t>
-  </si>
-  <si>
-    <t>(630, 663)</t>
-  </si>
-  <si>
-    <t>(631, 545)</t>
-  </si>
-  <si>
-    <t>(631, 577)</t>
-  </si>
-  <si>
-    <t>(631, 647)</t>
-  </si>
-  <si>
-    <t>(632, 485)</t>
-  </si>
-  <si>
-    <t>(633, 556)</t>
-  </si>
-  <si>
-    <t>(634, 478)</t>
-  </si>
-  <si>
-    <t>(634, 535)</t>
-  </si>
-  <si>
-    <t>(634, 610)</t>
-  </si>
-  <si>
-    <t>(634, 681)</t>
-  </si>
-  <si>
-    <t>(634, 690)</t>
-  </si>
-  <si>
-    <t>(635, 643)</t>
-  </si>
-  <si>
-    <t>(635, 657)</t>
-  </si>
-  <si>
-    <t>(635, 672)</t>
-  </si>
-  <si>
-    <t>(636, 604)</t>
-  </si>
-  <si>
-    <t>(636, 612)</t>
-  </si>
-  <si>
-    <t>(636, 626)</t>
-  </si>
-  <si>
-    <t>(637, 497)</t>
-  </si>
-  <si>
-    <t>(637, 579)</t>
-  </si>
-  <si>
-    <t>(639, 463)</t>
-  </si>
-  <si>
-    <t>(640, 670)</t>
-  </si>
-  <si>
-    <t>(641, 501)</t>
-  </si>
-  <si>
-    <t>(641, 573)</t>
-  </si>
-  <si>
-    <t>(641, 646)</t>
-  </si>
-  <si>
-    <t>(642, 508)</t>
-  </si>
-  <si>
-    <t>(642, 603)</t>
-  </si>
-  <si>
-    <t>(643, 641)</t>
-  </si>
-  <si>
-    <t>(643, 652)</t>
-  </si>
-  <si>
-    <t>(644, 509)</t>
-  </si>
-  <si>
-    <t>(644, 551)</t>
-  </si>
-  <si>
-    <t>(645, 567)</t>
-  </si>
-  <si>
-    <t>(646, 530)</t>
-  </si>
-  <si>
-    <t>(646, 644)</t>
-  </si>
-  <si>
-    <t>(647, 588)</t>
-  </si>
-  <si>
-    <t>(647, 635)</t>
-  </si>
-  <si>
-    <t>(648, 606)</t>
-  </si>
-  <si>
-    <t>(649, 575)</t>
-  </si>
-  <si>
-    <t>(649, 581)</t>
-  </si>
-  <si>
-    <t>(652, 490)</t>
-  </si>
-  <si>
-    <t>(652, 642)</t>
-  </si>
-  <si>
-    <t>(652, 665)</t>
-  </si>
-  <si>
-    <t>(653, 536)</t>
-  </si>
-  <si>
-    <t>(653, 614)</t>
-  </si>
-  <si>
-    <t>(653, 650)</t>
-  </si>
-  <si>
-    <t>(654, 565)</t>
-  </si>
-  <si>
-    <t>(655, 554)</t>
-  </si>
-  <si>
-    <t>(656, 530)</t>
-  </si>
-  <si>
-    <t>(657, 584)</t>
-  </si>
-  <si>
-    <t>(658, 621)</t>
-  </si>
-  <si>
-    <t>(658, 648)</t>
-  </si>
-  <si>
-    <t>(658, 671)</t>
-  </si>
-  <si>
-    <t>(658, 682)</t>
-  </si>
-  <si>
-    <t>(659, 512)</t>
-  </si>
-  <si>
-    <t>(659, 520)</t>
-  </si>
-  <si>
-    <t>(659, 523)</t>
-  </si>
-  <si>
-    <t>(659, 564)</t>
-  </si>
-  <si>
-    <t>(660, 642)</t>
-  </si>
-  <si>
-    <t>(660, 688)</t>
-  </si>
-  <si>
-    <t>(661, 630)</t>
-  </si>
-  <si>
-    <t>(662, 565)</t>
-  </si>
-  <si>
-    <t>(662, 657)</t>
-  </si>
-  <si>
-    <t>(663, 530)</t>
-  </si>
-  <si>
-    <t>(664, 649)</t>
-  </si>
-  <si>
-    <t>(665, 550)</t>
-  </si>
-  <si>
-    <t>(667, 616)</t>
-  </si>
-  <si>
-    <t>(668, 573)</t>
-  </si>
-  <si>
-    <t>(668, 611)</t>
-  </si>
-  <si>
-    <t>(668, 659)</t>
-  </si>
-  <si>
-    <t>(670, 665)</t>
-  </si>
-  <si>
-    <t>(671, 548)</t>
-  </si>
-  <si>
-    <t>(671, 582)</t>
-  </si>
-  <si>
-    <t>(671, 671)</t>
-  </si>
-  <si>
-    <t>(673, 565)</t>
-  </si>
-  <si>
-    <t>(675, 530)</t>
-  </si>
-  <si>
-    <t>(675, 622)</t>
-  </si>
-  <si>
-    <t>(675, 628)</t>
-  </si>
-  <si>
-    <t>(676, 641)</t>
-  </si>
-  <si>
-    <t>(677, 519)</t>
-  </si>
-  <si>
-    <t>(681, 577)</t>
-  </si>
-  <si>
-    <t>(681, 627)</t>
-  </si>
-  <si>
-    <t>(682, 528)</t>
-  </si>
-  <si>
-    <t>(683, 616)</t>
-  </si>
-  <si>
-    <t>(684, 676)</t>
-  </si>
-  <si>
-    <t>(685, 639)</t>
-  </si>
-  <si>
-    <t>(686, 575)</t>
-  </si>
-  <si>
-    <t>(686, 658)</t>
-  </si>
-  <si>
-    <t>(687, 609)</t>
-  </si>
-  <si>
-    <t>(688, 615)</t>
-  </si>
-  <si>
-    <t>(689, 563)</t>
-  </si>
-  <si>
-    <t>(690, 640)</t>
-  </si>
-  <si>
-    <t>(691, 522)</t>
-  </si>
-  <si>
-    <t>(697, 637)</t>
-  </si>
-  <si>
-    <t>(701, 656)</t>
-  </si>
-  <si>
-    <t>(702, 563)</t>
-  </si>
-  <si>
-    <t>(706, 658)</t>
-  </si>
-  <si>
-    <t>(708, 639)</t>
-  </si>
-  <si>
-    <t>(710, 664)</t>
-  </si>
-  <si>
-    <t>(713, 648)</t>
-  </si>
-  <si>
-    <t>(719, 672)</t>
+    <t>(623, 512)</t>
+  </si>
+  <si>
+    <t>(625, 499)</t>
+  </si>
+  <si>
+    <t>(625, 552)</t>
+  </si>
+  <si>
+    <t>(627, 544)</t>
+  </si>
+  <si>
+    <t>(628, 458)</t>
+  </si>
+  <si>
+    <t>(632, 591)</t>
+  </si>
+  <si>
+    <t>(634, 637)</t>
+  </si>
+  <si>
+    <t>(637, 623)</t>
+  </si>
+  <si>
+    <t>(639, 499)</t>
+  </si>
+  <si>
+    <t>(639, 574)</t>
+  </si>
+  <si>
+    <t>(639, 634)</t>
+  </si>
+  <si>
+    <t>(642, 589)</t>
+  </si>
+  <si>
+    <t>(642, 626)</t>
+  </si>
+  <si>
+    <t>(643, 632)</t>
+  </si>
+  <si>
+    <t>(643, 639)</t>
+  </si>
+  <si>
+    <t>(644, 594)</t>
+  </si>
+  <si>
+    <t>(647, 629)</t>
+  </si>
+  <si>
+    <t>(648, 602)</t>
+  </si>
+  <si>
+    <t>(648, 621)</t>
+  </si>
+  <si>
+    <t>(656, 613)</t>
+  </si>
+  <si>
+    <t>(662, 616)</t>
+  </si>
+  <si>
+    <t>(964, 625)</t>
+  </si>
+  <si>
+    <t>(967, 630)</t>
+  </si>
+  <si>
+    <t>(968, 652)</t>
+  </si>
+  <si>
+    <t>(969, 622)</t>
+  </si>
+  <si>
+    <t>(974, 632)</t>
+  </si>
+  <si>
+    <t>(976, 619)</t>
+  </si>
+  <si>
+    <t>(977, 638)</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C476"/>
+  <dimension ref="A1:C482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>147.7328670269416</v>
+        <v>304.0213808270727</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1838,10 +1856,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>142.414886862294</v>
+        <v>300.6010645357065</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1849,10 +1867,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>137.4627222195166</v>
+        <v>299.9616642172796</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1860,10 +1878,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>131.6852307588061</v>
+        <v>299.5062603686274</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1871,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>132.3820229487373</v>
+        <v>295.4894245146516</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1882,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>133.5215338437961</v>
+        <v>296.4456105257759</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1893,10 +1911,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>130.2497600765545</v>
+        <v>293.901343991483</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1904,10 +1922,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>145.6468331272603</v>
+        <v>291.6864755178066</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1915,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>125.1598977308627</v>
+        <v>292.8651566847788</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1926,10 +1944,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>123.4544450394557</v>
+        <v>291.2335832283084</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1937,10 +1955,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>128.160056179763</v>
+        <v>299.7215374309961</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1948,10 +1966,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>119.4361754243663</v>
+        <v>290.66303514551</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1959,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>118.3765179416932</v>
+        <v>288.9238654040195</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1970,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>133.461604965623</v>
+        <v>285.3769437077915</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1981,10 +1999,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>123.4908903522847</v>
+        <v>285.9545418418809</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1992,7 +2010,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>115.2779250333732</v>
+        <v>281.3965173913849</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2003,10 +2021,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>122.4295715911805</v>
+        <v>280.0071427660373</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2014,10 +2032,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>119.5491530710276</v>
+        <v>280.349781523011</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2025,10 +2043,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>114.8564321228898</v>
+        <v>284.177761269245</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2036,10 +2054,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>125.7179382586272</v>
+        <v>282.2853166567471</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2047,10 +2065,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>116.4173526584418</v>
+        <v>278.2588722754406</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2058,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>113.4416149391395</v>
+        <v>280.5851029545225</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2069,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>133.1465358167459</v>
+        <v>282.2853166567471</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2080,7 +2098,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>121.8523696938225</v>
+        <v>279.8731855680354</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2091,10 +2109,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>126.9094165142997</v>
+        <v>277.5842214535978</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2102,10 +2120,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>123.4706442843804</v>
+        <v>277.8488797889961</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2113,10 +2131,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>119.1007976463634</v>
+        <v>276.0652096878562</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2124,10 +2142,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>120.7476707849886</v>
+        <v>285.3086048474528</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2135,10 +2153,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>112.8937553631732</v>
+        <v>278.4977558257876</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2146,10 +2164,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>107.0560600806886</v>
+        <v>281.5848007261756</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2157,10 +2175,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>109.89540481749</v>
+        <v>278.7561658510893</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2168,7 +2186,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>106.8877916321597</v>
+        <v>276.9259828907356</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2179,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>119.5700631429122</v>
+        <v>275.3942628305826</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2190,7 +2208,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>104.3934863868431</v>
+        <v>272.9468812791236</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2201,10 +2219,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>109.110036201992</v>
+        <v>270.4163456597992</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2212,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>117.337121150981</v>
+        <v>269.7424697744128</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2223,10 +2241,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>124.0362850137007</v>
+        <v>270.1592123174777</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2234,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>105.3612832116238</v>
+        <v>269.0724809414742</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2245,10 +2263,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>100.1249219725039</v>
+        <v>268.0466377330632</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2256,10 +2274,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>114.6123902551552</v>
+        <v>266.8276597356428</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2267,10 +2285,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>100.8959860450355</v>
+        <v>267.9178978717174</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2278,10 +2296,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>125.8769240170731</v>
+        <v>274.7216773390844</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2289,7 +2307,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>117.8897790310933</v>
+        <v>265.2772134956186</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2300,10 +2318,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>105.1903037356581</v>
+        <v>269.4661388746275</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2311,10 +2329,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>106.4706532336493</v>
+        <v>263.4274093559742</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2322,10 +2340,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>125.3993620398445</v>
+        <v>271.4498111990502</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2333,10 +2351,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>94.36630754670864</v>
+        <v>261.7651619295432</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2344,10 +2362,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>98.35141076771599</v>
+        <v>261.9198350640898</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2355,10 +2373,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>108.7566089945802</v>
+        <v>261.0842775810141</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2366,10 +2384,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>93.62157870918435</v>
+        <v>256.7800615312646</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2377,7 +2395,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>98.41239759298622</v>
+        <v>257.526697645118</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2388,10 +2406,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>119.6035116541316</v>
+        <v>262.4290380274256</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2399,10 +2417,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>120.9338662244783</v>
+        <v>262.9448611401257</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2410,10 +2428,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>108.6001841619065</v>
+        <v>254.6369965264278</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2421,10 +2439,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>93.62157870918435</v>
+        <v>256.1640099623677</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2432,10 +2450,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>89.28605714219886</v>
+        <v>265.0358466321113</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2443,10 +2461,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>91.08238029388561</v>
+        <v>252.3529274646918</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2454,10 +2472,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>96.25487000666512</v>
+        <v>249.8019215298393</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2465,10 +2483,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>84.09518416651456</v>
+        <v>250.353749722268</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2476,10 +2494,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>118.79393923934</v>
+        <v>267.4023186137323</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2487,10 +2505,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>127.1416532848303</v>
+        <v>260.2786967848118</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2498,10 +2516,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>80.62257748298549</v>
+        <v>247.1295206971438</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2509,10 +2527,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>82.96987405076617</v>
+        <v>258.0697580112788</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2520,10 +2538,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>91.92388155425118</v>
+        <v>251.8571023417843</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2531,10 +2549,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>122.0245876862528</v>
+        <v>261.4804007951648</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2542,7 +2560,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>104.8045800525912</v>
+        <v>243.402958075698</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2553,10 +2571,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>116.1808934377766</v>
+        <v>243.6657546722559</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2564,10 +2582,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>101.9803902718557</v>
+        <v>257.846853771769</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2575,10 +2593,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>99.35793878699377</v>
+        <v>245.3507693079441</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2586,10 +2604,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>81.54140052758476</v>
+        <v>256.6729436461895</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2597,10 +2615,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>93.00537618869137</v>
+        <v>239.0188277102873</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2608,10 +2626,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>103.9471019317037</v>
+        <v>246.1747346906258</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2619,7 +2637,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>93.23625904121208</v>
+        <v>239.6413987607316</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2630,10 +2648,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>83.72574275573791</v>
+        <v>243.402958075698</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2641,10 +2659,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>76.53757247260981</v>
+        <v>249.1947029934625</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2652,10 +2670,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>86.82165628459296</v>
+        <v>244.0081965836394</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2663,10 +2681,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>101.8331969448077</v>
+        <v>240.2519510846894</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2674,10 +2692,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>106.1037228376083</v>
+        <v>236.0084744241189</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2685,10 +2703,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>127.5813465989445</v>
+        <v>236.763595174596</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2696,7 +2714,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>113.0707742964556</v>
+        <v>239.8853893008076</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2707,10 +2725,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>85.70297544426332</v>
+        <v>245.3263133053607</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2718,10 +2736,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>74.63243262818116</v>
+        <v>247.0323865407125</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2729,10 +2747,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>73.00684899377592</v>
+        <v>258.5652722234755</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2740,7 +2758,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>116.400171821179</v>
+        <v>239.7081558896151</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2751,10 +2769,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>137.0583817210753</v>
+        <v>235.5525419094432</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2762,10 +2780,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>90.68627239003708</v>
+        <v>234.4184293096428</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2773,10 +2791,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>68.3593446428504</v>
+        <v>236.1778990506944</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2784,10 +2802,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>152.5057375969836</v>
+        <v>250.505488961819</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2795,7 +2813,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>72.61542535852834</v>
+        <v>246.6779276708802</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2806,10 +2824,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>68.65857557508748</v>
+        <v>261.7059418507727</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2817,10 +2835,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>144.9034161087999</v>
+        <v>239.701898198575</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2828,7 +2846,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>125.7179382586272</v>
+        <v>231.0346294389653</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -2839,10 +2857,10 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>135.2035502492446</v>
+        <v>230.5558500667463</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2850,10 +2868,10 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>100.0049998750062</v>
+        <v>239.841614404173</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2861,10 +2879,10 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>74.30343195303969</v>
+        <v>264.3198819612327</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2872,10 +2890,10 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>89.10667763978185</v>
+        <v>229.9652147608416</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2883,7 +2901,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>70.68238818828917</v>
+        <v>229.5931183637698</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2894,10 +2912,10 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>69.07966415668217</v>
+        <v>231.6570741419307</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2905,10 +2923,10 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>78.81624198095213</v>
+        <v>243.3289953951234</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2916,10 +2934,10 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>80.60397012554654</v>
+        <v>255.3605294480727</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2927,10 +2945,10 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>66.73080248281148</v>
+        <v>229.8368986912241</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2938,10 +2956,10 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>94.92101980067429</v>
+        <v>235.7222942362474</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2949,7 +2967,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>122.80065146407</v>
+        <v>224.501670372405</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2960,10 +2978,10 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>104.0432602334241</v>
+        <v>224.501670372405</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2971,10 +2989,10 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>134.6179779969971</v>
+        <v>233.5208770110287</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2982,10 +3000,10 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>59.84145720150872</v>
+        <v>232.0021551624036</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2993,7 +3011,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>93.23625904121208</v>
+        <v>229.4449825121482</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3004,10 +3022,10 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>133.2816566523691</v>
+        <v>254.7724474899121</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3015,10 +3033,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>123.0040649734796</v>
+        <v>223.2935287911407</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3026,7 +3044,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>127.0118104744594</v>
+        <v>223.6358647444546</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3037,10 +3055,10 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>115.4859298789251</v>
+        <v>235.3040586135309</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3048,10 +3066,10 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>79.90619500389191</v>
+        <v>240.9502023240487</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3059,10 +3077,10 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>56.08029957123981</v>
+        <v>245.1060994753089</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3070,7 +3088,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>124.7757989355308</v>
+        <v>248.766959220874</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3081,10 +3099,10 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>61.29437168288782</v>
+        <v>242.8703357761091</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3092,10 +3110,10 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>55.97320787662612</v>
+        <v>219.0022830931221</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3103,10 +3121,10 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>94.57801012920498</v>
+        <v>243.2858401140518</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3114,10 +3132,10 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>103.0776406404415</v>
+        <v>216.453228204155</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3125,10 +3143,10 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>64.20280367709809</v>
+        <v>230.4647478466067</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3136,7 +3154,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>82.00609733428362</v>
+        <v>219.8658682015014</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3147,7 +3165,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>67.26812023536856</v>
+        <v>231.1925604339378</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3158,10 +3176,10 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>50.80354318352215</v>
+        <v>216.8432613663611</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3169,10 +3187,10 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>50.03998401278722</v>
+        <v>221.2894032709203</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3180,7 +3198,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>95.1892851112981</v>
+        <v>219.0205469813278</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3191,10 +3209,10 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>77.46612162745726</v>
+        <v>213.3963448609184</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3202,10 +3220,10 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>49.09175083453431</v>
+        <v>226.4906179072325</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3213,7 +3231,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>144.2220510185596</v>
+        <v>221.4497685706625</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3224,7 +3242,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>62.3698645180507</v>
+        <v>219.0182640785923</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3235,10 +3253,10 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>49.64876634922564</v>
+        <v>212.0023584774471</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3246,10 +3264,10 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>57.8013840664737</v>
+        <v>248.5739326639059</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3257,10 +3275,10 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>126.2893503031827</v>
+        <v>214.7673159491453</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3268,10 +3286,10 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>45.0111097397076</v>
+        <v>210.3425777154972</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3279,10 +3297,10 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>51.478150704935</v>
+        <v>212.607619807005</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3290,10 +3308,10 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>107.4243920159663</v>
+        <v>241.1389640850271</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3301,7 +3319,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>106.5129100156408</v>
+        <v>208.0865204668481</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3312,10 +3330,10 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>125</v>
+        <v>209.057408383439</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3323,10 +3341,10 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>51.86520991955976</v>
+        <v>230.7661153635863</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3334,7 +3352,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>82.49242389456137</v>
+        <v>226.9317077889293</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3345,10 +3363,10 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>42.42640687119285</v>
+        <v>235.8346878641902</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3356,10 +3374,10 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>46.09772228646444</v>
+        <v>217.8921751692795</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3367,7 +3385,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>56.63920903402519</v>
+        <v>208.6264604502506</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -3378,7 +3396,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>115.8792474949678</v>
+        <v>205.0097558654222</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -3389,10 +3407,10 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>137.2661648040041</v>
+        <v>205.5480479109447</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3400,7 +3418,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>110.8602724153247</v>
+        <v>207.8003849852064</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -3411,7 +3429,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>94.37160589923221</v>
+        <v>229.8717033477587</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -3422,7 +3440,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>63.89053137985315</v>
+        <v>230.3584163862914</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -3433,10 +3451,10 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>94.37160589923221</v>
+        <v>222.5690903966676</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3444,7 +3462,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>87.65842800324451</v>
+        <v>208.9042843026442</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -3455,10 +3473,10 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>128.3900307656323</v>
+        <v>219.4925966860841</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3466,10 +3484,10 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>131.8976876218836</v>
+        <v>240.2165689539337</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3477,10 +3495,10 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>100.8464178838297</v>
+        <v>224.082574065901</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3488,10 +3506,10 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>44.2944691807002</v>
+        <v>203.5411506305298</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3499,10 +3517,10 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>39.293765408777</v>
+        <v>235.9830502387831</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3510,10 +3528,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>38.01315561749642</v>
+        <v>201.0099500024812</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3521,10 +3539,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>114.7911146387211</v>
+        <v>232.071109791805</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3532,10 +3550,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>49.49747468305833</v>
+        <v>225.0022222112484</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3543,10 +3561,10 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>79.1580697086532</v>
+        <v>200.4120754844877</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3554,10 +3572,10 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>85.0881895447306</v>
+        <v>210.440015206234</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3565,10 +3583,10 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>99.02019995940222</v>
+        <v>216.1712284278368</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3576,7 +3594,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>125.4192967609052</v>
+        <v>232.4672019877213</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -3587,10 +3605,10 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>72.89718787443039</v>
+        <v>196.2549362436522</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3598,10 +3616,10 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>35.84689665786984</v>
+        <v>196.91876497683</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3609,10 +3627,10 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>40.22437072223753</v>
+        <v>198.9271223337833</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3620,10 +3638,10 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>50.32891812864648</v>
+        <v>215.188289644209</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3631,7 +3649,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>76.48529270389177</v>
+        <v>210.7723890835799</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3642,7 +3660,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>126.3843344722755</v>
+        <v>208.568933448872</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3653,10 +3671,10 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>92.69843580125827</v>
+        <v>195.9234544407586</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3664,10 +3682,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>82.46211251235322</v>
+        <v>201.9207765436732</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3675,7 +3693,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>76.96752561957543</v>
+        <v>201.37527157027</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -3686,7 +3704,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>35.34119409414458</v>
+        <v>209.8475637218598</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -3697,10 +3715,10 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>60.53924347066124</v>
+        <v>215.5736533067063</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3708,7 +3726,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>81.15417426109393</v>
+        <v>197.5170878683665</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3719,10 +3737,10 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>89.5377015563835</v>
+        <v>216.9101196348386</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3730,7 +3748,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>102.7861858422619</v>
+        <v>197.4335331193766</v>
       </c>
       <c r="C175">
         <v>3</v>
@@ -3741,7 +3759,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>48.41487374764082</v>
+        <v>207.2389924700465</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3752,10 +3770,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>107.2800074571213</v>
+        <v>225.8871399615304</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3763,7 +3781,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>57.8013840664737</v>
+        <v>191.3765920900464</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -3774,10 +3792,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>126.372465355393</v>
+        <v>191.8462926407493</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3785,7 +3803,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>29.12043955712207</v>
+        <v>193.8298222668535</v>
       </c>
       <c r="C180">
         <v>3</v>
@@ -3796,7 +3814,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>35.60898762952971</v>
+        <v>200.5043640422821</v>
       </c>
       <c r="C181">
         <v>3</v>
@@ -3807,10 +3825,10 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>46.40043103248072</v>
+        <v>220.9117470846673</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3818,10 +3836,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>69.85699678629192</v>
+        <v>223.6604569431083</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3829,10 +3847,10 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>117.1537451385998</v>
+        <v>208.9712898940905</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3840,10 +3858,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>87.28115489611719</v>
+        <v>201.8018830437417</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3851,10 +3869,10 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>69.46221994724903</v>
+        <v>212.8966885604377</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3862,7 +3880,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>116.1808934377766</v>
+        <v>224.9555511651135</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3873,10 +3891,10 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>129.8383610494218</v>
+        <v>201.6754819009986</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3884,10 +3902,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>97.52948272189288</v>
+        <v>226.8766184515275</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3895,10 +3913,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>33.42154993413681</v>
+        <v>229.7128642457797</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3906,10 +3924,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>87.93179174792243</v>
+        <v>226.9273011340857</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3917,10 +3935,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>124.5351356043747</v>
+        <v>187.181729877678</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3928,10 +3946,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>80.95677859203639</v>
+        <v>186.2686232300008</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3939,7 +3957,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>137.2953021774598</v>
+        <v>196.0612149304395</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -3950,10 +3968,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>111.6109313642709</v>
+        <v>218.8926677620792</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3961,10 +3979,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>68.35202996254024</v>
+        <v>190.3943276465977</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3972,10 +3990,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>129.0658746532173</v>
+        <v>190.1578291840754</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3983,7 +4001,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>116.2970334961301</v>
+        <v>185.8278773489059</v>
       </c>
       <c r="C198">
         <v>4</v>
@@ -3994,7 +4012,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>26.92582403567252</v>
+        <v>187.8829422805593</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -4005,10 +4023,10 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>48.76474136094644</v>
+        <v>204.8316381812146</v>
       </c>
       <c r="C200">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4016,7 +4034,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>27.80287754891569</v>
+        <v>216.453228204155</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -4027,10 +4045,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>53.71219600798314</v>
+        <v>211.482859825566</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4038,10 +4056,10 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>48.75448697299562</v>
+        <v>197.7725966861941</v>
       </c>
       <c r="C203">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4049,10 +4067,10 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>36.61966684720111</v>
+        <v>226.8149025086315</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4060,10 +4078,10 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>96.317184344228</v>
+        <v>201.2958022413781</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4071,10 +4089,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>119.8540779448075</v>
+        <v>189.5600168811978</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4082,10 +4100,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>103.9422916814903</v>
+        <v>193.3520105920805</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4093,10 +4111,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>29</v>
+        <v>200.3921156133644</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4104,10 +4122,10 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>81.49233092751734</v>
+        <v>202.6055280588365</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4115,10 +4133,10 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>139.4417441084269</v>
+        <v>195</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4126,10 +4144,10 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>61.03277807866851</v>
+        <v>183.7634348830039</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4137,10 +4155,10 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>74.21590126111789</v>
+        <v>220.6399782451041</v>
       </c>
       <c r="C212">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4148,7 +4166,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>91.78235124467012</v>
+        <v>181.0248601711931</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -4159,10 +4177,10 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>90.60905032059435</v>
+        <v>181.6645259812713</v>
       </c>
       <c r="C214">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4170,10 +4188,10 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>37.12142238654117</v>
+        <v>196.4001018329675</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4181,10 +4199,10 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>49.04079934095692</v>
+        <v>180.8535318980528</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4192,10 +4210,10 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>126.0198397078809</v>
+        <v>179.3543977715629</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4203,10 +4221,10 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>38.48376280978771</v>
+        <v>178.1375872745558</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4214,7 +4232,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>80.4114419718985</v>
+        <v>178.5497129653251</v>
       </c>
       <c r="C219">
         <v>4</v>
@@ -4225,10 +4243,10 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>65.73431371817918</v>
+        <v>198.5673689204749</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4236,10 +4254,10 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>23.43074902771996</v>
+        <v>185.9462287867113</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4247,10 +4265,10 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>18.60107523773828</v>
+        <v>176.7257762749962</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4258,10 +4276,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>23.43074902771996</v>
+        <v>214.478437144623</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4269,10 +4287,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>95.03683496413377</v>
+        <v>182.8496650256708</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4280,10 +4298,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>57.48912940721924</v>
+        <v>193.6853117817662</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4291,7 +4309,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>29.06888370749727</v>
+        <v>202.0544481074346</v>
       </c>
       <c r="C226">
         <v>7</v>
@@ -4302,7 +4320,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>120.5985074534507</v>
+        <v>212.1909517392294</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -4313,10 +4331,10 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>49.47726750741192</v>
+        <v>216.6033240742164</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4324,10 +4342,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>36.05551275463989</v>
+        <v>183.7307813078691</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4335,7 +4353,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>87.82368700982668</v>
+        <v>205.0097558654222</v>
       </c>
       <c r="C230">
         <v>3</v>
@@ -4346,10 +4364,10 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>105.6834897228512</v>
+        <v>175.0942603285442</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4357,10 +4375,10 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>125.4830665866913</v>
+        <v>180.3607496103296</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4368,10 +4386,10 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>41.48493702538308</v>
+        <v>215.8008341040414</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4379,7 +4397,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>106.4706532336493</v>
+        <v>207.460839678239</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -4390,10 +4408,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>32.57299494980466</v>
+        <v>200.4819193842677</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4401,10 +4419,10 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>56.88585061331157</v>
+        <v>187.2431574183687</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4412,10 +4430,10 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>68.73136110975832</v>
+        <v>190.5177157116891</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4423,10 +4441,10 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>133.3754100274859</v>
+        <v>175.8465239918037</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4434,7 +4452,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>112.3610252712212</v>
+        <v>172.0523176246109</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -4445,10 +4463,10 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>99.40824915468535</v>
+        <v>183.2948444446815</v>
       </c>
       <c r="C240">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4456,10 +4474,10 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>62.64982043070834</v>
+        <v>173.4416328336423</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4467,7 +4485,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>62.64982043070834</v>
+        <v>175.1485084150019</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -4478,7 +4496,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>78.5175139698144</v>
+        <v>201.1019641873246</v>
       </c>
       <c r="C243">
         <v>4</v>
@@ -4489,10 +4507,10 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>80.39900496896712</v>
+        <v>169.3074127142695</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4500,7 +4518,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>24.35159132377184</v>
+        <v>201.0795862339089</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -4511,7 +4529,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>32.7566787083184</v>
+        <v>177.1157813409071</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4522,10 +4540,10 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>69.26037828369117</v>
+        <v>213.4900466063933</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4533,10 +4551,10 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>49.36598018878993</v>
+        <v>179.0111728356641</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4544,10 +4562,10 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>112.1605991424796</v>
+        <v>168.6890630716763</v>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4555,7 +4573,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>122.1474518768198</v>
+        <v>182.1565260977492</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -4566,10 +4584,10 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>17.72004514666935</v>
+        <v>167.6931721925493</v>
       </c>
       <c r="C251">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4577,7 +4595,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>108.0740486888504</v>
+        <v>197.4740489279541</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -4588,10 +4606,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>63.07138812488591</v>
+        <v>183.3712082089225</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4599,10 +4617,10 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>40.11234224026316</v>
+        <v>178.6001119820478</v>
       </c>
       <c r="C254">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4610,10 +4628,10 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>79.05694150420949</v>
+        <v>163</v>
       </c>
       <c r="C255">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4621,10 +4639,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>114.0043858805441</v>
+        <v>165.5596569216063</v>
       </c>
       <c r="C256">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4632,10 +4650,10 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>76</v>
+        <v>192.8159744419533</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4643,10 +4661,10 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>68</v>
+        <v>169.4992625352689</v>
       </c>
       <c r="C258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4654,7 +4672,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>172.1685220939066</v>
       </c>
       <c r="C259">
         <v>3</v>
@@ -4665,10 +4683,10 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>25.01999200639361</v>
+        <v>190.541334098405</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4676,10 +4694,10 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>49.04079934095692</v>
+        <v>164.453640883989</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4687,10 +4705,10 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>101.044544632553</v>
+        <v>172.0116275139562</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4698,10 +4716,10 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>51.0881590977792</v>
+        <v>179.980554505202</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4709,10 +4727,10 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>105.0428484000696</v>
+        <v>161.533278305122</v>
       </c>
       <c r="C264">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4720,10 +4738,10 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>4.47213595499958</v>
+        <v>194.6124353683495</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4731,7 +4749,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>46.17358552246078</v>
+        <v>171.3971995103771</v>
       </c>
       <c r="C266">
         <v>3</v>
@@ -4742,7 +4760,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>131.0610544746226</v>
+        <v>166.7842918262988</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -4753,10 +4771,10 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>88.14193099768123</v>
+        <v>157.9905060438759</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4764,7 +4782,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>84.2140130857092</v>
+        <v>188.6054081939328</v>
       </c>
       <c r="C269">
         <v>3</v>
@@ -4775,7 +4793,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>34.52535300326414</v>
+        <v>163.1747529491006</v>
       </c>
       <c r="C270">
         <v>3</v>
@@ -4786,10 +4804,10 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>100.1798382909456</v>
+        <v>189.2511558749378</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4797,7 +4815,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>119.1511644928408</v>
+        <v>165.2755275290326</v>
       </c>
       <c r="C272">
         <v>5</v>
@@ -4808,10 +4826,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>55.44366510251645</v>
+        <v>195.8494319624134</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4819,7 +4837,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>29.8328677803526</v>
+        <v>152.0032894380908</v>
       </c>
       <c r="C274">
         <v>4</v>
@@ -4830,10 +4848,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>72.3394774656273</v>
+        <v>154.3534904043313</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4841,7 +4859,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>110.2225022397877</v>
+        <v>188.403821617291</v>
       </c>
       <c r="C276">
         <v>3</v>
@@ -4852,10 +4870,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>68.46897107449476</v>
+        <v>149.566038925954</v>
       </c>
       <c r="C277">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4863,10 +4881,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>106.3813893498294</v>
+        <v>149.4054885203352</v>
       </c>
       <c r="C278">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4874,10 +4892,10 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>64.6297145282261</v>
+        <v>149.7765001594042</v>
       </c>
       <c r="C279">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4885,10 +4903,10 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>129.3135723735138</v>
+        <v>148.0844353738772</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4896,10 +4914,10 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>11.40175425099138</v>
+        <v>151.634428808236</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4907,10 +4925,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>30.46309242345563</v>
+        <v>158.596973489408</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4918,10 +4936,10 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>60.20797289396148</v>
+        <v>171.1724276862369</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4929,10 +4947,10 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>16.40121946685673</v>
+        <v>198.9095271725314</v>
       </c>
       <c r="C284">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4940,10 +4958,10 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>118.7139418939494</v>
+        <v>147.0544116985274</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4951,10 +4969,10 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>20.51828452868319</v>
+        <v>182.4088813627231</v>
       </c>
       <c r="C286">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4962,10 +4980,10 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>24.20743687382041</v>
+        <v>192.8522750708428</v>
       </c>
       <c r="C287">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4973,10 +4991,10 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>39.92492955535426</v>
+        <v>161.4837453120282</v>
       </c>
       <c r="C288">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4984,10 +5002,10 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>91.2414379544733</v>
+        <v>162.3483908143225</v>
       </c>
       <c r="C289">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4995,10 +5013,10 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>16</v>
+        <v>153.3786165017797</v>
       </c>
       <c r="C290">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5006,10 +5024,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>113.1370849898476</v>
+        <v>190.7904609774818</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5017,10 +5035,10 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>123.1787319304757</v>
+        <v>166.2077013859466</v>
       </c>
       <c r="C292">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5028,10 +5046,10 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>67.1863081289633</v>
+        <v>148.677503341965</v>
       </c>
       <c r="C293">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5039,10 +5057,10 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>76.90253571892151</v>
+        <v>143.5896932234344</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5050,10 +5068,10 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>129.1239714383042</v>
+        <v>143.8923208513922</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5061,10 +5079,10 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>49.39635614091387</v>
+        <v>194.5584745005984</v>
       </c>
       <c r="C296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5072,10 +5090,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>81.25269226308751</v>
+        <v>152.2793485670332</v>
       </c>
       <c r="C297">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5083,10 +5101,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>38.07886552931954</v>
+        <v>175</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5094,10 +5112,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>54.78138369920935</v>
+        <v>169.1892431568863</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5105,10 +5123,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>28.2842712474619</v>
+        <v>159.298462013919</v>
       </c>
       <c r="C300">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5116,10 +5134,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>129.7112177107285</v>
+        <v>139.2910621683961</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5127,7 +5145,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>66.73080248281148</v>
+        <v>142.1267040355189</v>
       </c>
       <c r="C302">
         <v>3</v>
@@ -5138,10 +5156,10 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>103.5857133006285</v>
+        <v>140.8119313126555</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5149,10 +5167,10 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>93.86160024205851</v>
+        <v>151.2878051926195</v>
       </c>
       <c r="C304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5160,10 +5178,10 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>83.24061508662703</v>
+        <v>156.6684397062791</v>
       </c>
       <c r="C305">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5171,10 +5189,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>24.73863375370596</v>
+        <v>150.3761949245957</v>
       </c>
       <c r="C306">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5182,10 +5200,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>39.05124837953327</v>
+        <v>160.9099126840854</v>
       </c>
       <c r="C307">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5193,7 +5211,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>40.60788100849391</v>
+        <v>135.0037036528998</v>
       </c>
       <c r="C308">
         <v>5</v>
@@ -5204,10 +5222,10 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>78.43468620451031</v>
+        <v>136.6235704408284</v>
       </c>
       <c r="C309">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5215,10 +5233,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>64.47480127925948</v>
+        <v>139.2156600386609</v>
       </c>
       <c r="C310">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5226,10 +5244,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>93.96275858019496</v>
+        <v>176.6946518715267</v>
       </c>
       <c r="C311">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5237,10 +5255,10 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>28.16025568065745</v>
+        <v>134.3018987207552</v>
       </c>
       <c r="C312">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5248,10 +5266,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>37.53664875824692</v>
+        <v>140.7302383995707</v>
       </c>
       <c r="C313">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5259,10 +5277,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>47.20169488482379</v>
+        <v>167.800476757368</v>
       </c>
       <c r="C314">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5270,10 +5288,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>121.2765434863643</v>
+        <v>179.1340280348767</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5281,7 +5299,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>31.78049716414141</v>
+        <v>156.2465999630072</v>
       </c>
       <c r="C316">
         <v>4</v>
@@ -5292,10 +5310,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>108.9311709291698</v>
+        <v>150.2963738750872</v>
       </c>
       <c r="C317">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5303,10 +5321,10 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>119.8165264060013</v>
+        <v>148.0337799287717</v>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5314,10 +5332,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>83.57032966310472</v>
+        <v>133.1352695569435</v>
       </c>
       <c r="C319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5325,10 +5343,10 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>72.49827584156743</v>
+        <v>143.5444182126216</v>
       </c>
       <c r="C320">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5336,10 +5354,10 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>30.06659275674582</v>
+        <v>170.5520448426227</v>
       </c>
       <c r="C321">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5347,7 +5365,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>108.5218871933215</v>
+        <v>165.4146305500212</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -5358,10 +5376,10 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>70.21395872616783</v>
+        <v>160.0781059358212</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5369,7 +5387,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>32.28002478313795</v>
+        <v>135.3403118069409</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -5380,7 +5398,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>102.1420579389313</v>
+        <v>133.3641631023867</v>
       </c>
       <c r="C325">
         <v>3</v>
@@ -5391,10 +5409,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>93.63759928575701</v>
+        <v>131.4610208388783</v>
       </c>
       <c r="C326">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5402,7 +5420,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>43.86342439892262</v>
+        <v>130.034610777285</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -5413,10 +5431,10 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>38.27531841800928</v>
+        <v>153.1698403733581</v>
       </c>
       <c r="C328">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5424,7 +5442,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>91.18113840043894</v>
+        <v>165.2392205258788</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -5435,7 +5453,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>111.0180165558726</v>
+        <v>132.0037878244408</v>
       </c>
       <c r="C330">
         <v>3</v>
@@ -5446,10 +5464,10 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>123.4908903522847</v>
+        <v>141.4390328021229</v>
       </c>
       <c r="C331">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5457,7 +5475,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>84.17244204607586</v>
+        <v>148.2228052628879</v>
       </c>
       <c r="C332">
         <v>3</v>
@@ -5468,7 +5486,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>100.9009415218708</v>
+        <v>157.8670326572334</v>
       </c>
       <c r="C333">
         <v>3</v>
@@ -5479,10 +5497,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>37.64306044943742</v>
+        <v>127.8827588066507</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5490,7 +5508,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>46.22769732530488</v>
+        <v>131.7345816405093</v>
       </c>
       <c r="C335">
         <v>3</v>
@@ -5501,10 +5519,10 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>53.0754180388624</v>
+        <v>174.7254989977135</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5512,10 +5530,10 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>69.9714227381436</v>
+        <v>147.1461858153313</v>
       </c>
       <c r="C337">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5523,10 +5541,10 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>117.9533806213285</v>
+        <v>165.951800231272</v>
       </c>
       <c r="C338">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5534,10 +5552,10 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>82.29823813423954</v>
+        <v>169.9176271020756</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5545,10 +5563,10 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>74.94664769020693</v>
+        <v>154.0292180074936</v>
       </c>
       <c r="C340">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5556,10 +5574,10 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>45.17742799230607</v>
+        <v>140.9432509913121</v>
       </c>
       <c r="C341">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5567,7 +5585,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>60.14149981501958</v>
+        <v>124.1692393469494</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -5578,10 +5596,10 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>41.77319714841084</v>
+        <v>124.1692393469494</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5589,10 +5607,10 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>95.2732911156112</v>
+        <v>131.1030129325791</v>
       </c>
       <c r="C344">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5600,10 +5618,10 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>104.7854951794379</v>
+        <v>146.9965986001037</v>
       </c>
       <c r="C345">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5611,7 +5629,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>89.47066558375433</v>
+        <v>156.9745202254175</v>
       </c>
       <c r="C346">
         <v>3</v>
@@ -5622,10 +5640,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>70.80254232723568</v>
+        <v>146.7310464761974</v>
       </c>
       <c r="C347">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5633,10 +5651,10 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>133.1352695569435</v>
+        <v>132.5028301584536</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -5644,10 +5662,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>65.94694837519019</v>
+        <v>132.5028301584536</v>
       </c>
       <c r="C349">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5655,10 +5673,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>43.04648650006177</v>
+        <v>176.9180601295413</v>
       </c>
       <c r="C350">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -5666,10 +5684,10 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>72.00694410957877</v>
+        <v>120.01666550942</v>
       </c>
       <c r="C351">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5677,10 +5695,10 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>67.35725647619564</v>
+        <v>133.7235955244997</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -5688,10 +5706,10 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>76.84399781375251</v>
+        <v>127.9453008124956</v>
       </c>
       <c r="C353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -5699,10 +5717,10 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>47.43416490252569</v>
+        <v>118.2708755357801</v>
       </c>
       <c r="C354">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -5710,10 +5728,10 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>108.2589488217949</v>
+        <v>118.5116028074889</v>
       </c>
       <c r="C355">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -5721,7 +5739,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>101.0742301479462</v>
+        <v>155.2191998433184</v>
       </c>
       <c r="C356">
         <v>2</v>
@@ -5732,7 +5750,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>104.651803615609</v>
+        <v>150.0833101980363</v>
       </c>
       <c r="C357">
         <v>2</v>
@@ -5743,10 +5761,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>113.718951806636</v>
+        <v>147.6109752017105</v>
       </c>
       <c r="C358">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -5754,7 +5772,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>130.7402003975824</v>
+        <v>171.2658751765804</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -5765,7 +5783,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>49.64876634922564</v>
+        <v>116.619037896906</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -5776,7 +5794,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>60.4400529450463</v>
+        <v>120.8801058900926</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -5787,7 +5805,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>68.62215385719105</v>
+        <v>124.787819918452</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -5798,7 +5816,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>98.88377015466189</v>
+        <v>142.0563268566381</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -5809,7 +5827,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>124.0846485267215</v>
+        <v>163.3554406807438</v>
       </c>
       <c r="C364">
         <v>4</v>
@@ -5820,10 +5838,10 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>122.6539848516957</v>
+        <v>173.0028901492689</v>
       </c>
       <c r="C365">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -5831,10 +5849,10 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>128.1561547488064</v>
+        <v>130.3610371238278</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -5842,7 +5860,7 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>92.35799911215054</v>
+        <v>146.8638825579659</v>
       </c>
       <c r="C367">
         <v>3</v>
@@ -5853,10 +5871,10 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>56.36488268416781</v>
+        <v>138.2208377922808</v>
       </c>
       <c r="C368">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -5864,10 +5882,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>137.2333778641333</v>
+        <v>115.4469575172945</v>
       </c>
       <c r="C369">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -5875,10 +5893,10 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>66.21933252457322</v>
+        <v>120.1540677630183</v>
       </c>
       <c r="C370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -5886,10 +5904,10 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>80.15609770940699</v>
+        <v>124.3261838873855</v>
       </c>
       <c r="C371">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -5897,7 +5915,7 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>91.2633551870629</v>
+        <v>131.7649422266788</v>
       </c>
       <c r="C372">
         <v>3</v>
@@ -5908,10 +5926,10 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>111.4136436887332</v>
+        <v>153.4828980701107</v>
       </c>
       <c r="C373">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -5919,10 +5937,10 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>58.60034129593445</v>
+        <v>150.6950563223625</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -5930,10 +5948,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>63.81222453417526</v>
+        <v>111.9866063420086</v>
       </c>
       <c r="C375">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -5941,7 +5959,7 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>107.1867529128483</v>
+        <v>113.0530848760882</v>
       </c>
       <c r="C376">
         <v>3</v>
@@ -5952,7 +5970,7 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>78.49203781276162</v>
+        <v>159.9062225180746</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -5963,10 +5981,10 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>101.2422836565829</v>
+        <v>108.0740486888504</v>
       </c>
       <c r="C378">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -5974,10 +5992,10 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="C379">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -5985,10 +6003,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>56.00892785976178</v>
+        <v>119.4068674741951</v>
       </c>
       <c r="C380">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -5996,7 +6014,7 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>88.86506625215557</v>
+        <v>125.1958465764739</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -6007,10 +6025,10 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>109.0779537761871</v>
+        <v>111.9464157532522</v>
       </c>
       <c r="C382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6018,10 +6036,10 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>62.03224967708329</v>
+        <v>125.3993620398445</v>
       </c>
       <c r="C383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6029,10 +6047,10 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>116.1077086157504</v>
+        <v>108.1711606667877</v>
       </c>
       <c r="C384">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6040,7 +6058,7 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>73.00684899377592</v>
+        <v>149.2012064294388</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -6051,10 +6069,10 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>67.11929677819934</v>
+        <v>143.5583505059876</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6062,10 +6080,10 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>118.7013058057914</v>
+        <v>105.323311759553</v>
       </c>
       <c r="C387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -6073,10 +6091,10 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>126.5898890117216</v>
+        <v>127.4127152210485</v>
       </c>
       <c r="C388">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -6084,10 +6102,10 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>88.45903006477066</v>
+        <v>138.77319625922</v>
       </c>
       <c r="C389">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -6095,7 +6113,7 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>99.20181449953424</v>
+        <v>110.0727032465361</v>
       </c>
       <c r="C390">
         <v>2</v>
@@ -6106,10 +6124,10 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>111.5168148756052</v>
+        <v>102.2007827758672</v>
       </c>
       <c r="C391">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6117,10 +6135,10 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>66.30987860040162</v>
+        <v>127.0157470552372</v>
       </c>
       <c r="C392">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6128,10 +6146,10 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>69.83552104767315</v>
+        <v>97.41663102366043</v>
       </c>
       <c r="C393">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -6139,10 +6157,10 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>77.62087348130012</v>
+        <v>112.5077775089349</v>
       </c>
       <c r="C394">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -6150,10 +6168,10 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>102.0049018429997</v>
+        <v>129.634100452003</v>
       </c>
       <c r="C395">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6161,7 +6179,7 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>62.00806399170998</v>
+        <v>133.6600164596728</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -6172,10 +6190,10 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>131.6092701902111</v>
+        <v>120</v>
       </c>
       <c r="C397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -6183,10 +6201,10 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>112.6454615153225</v>
+        <v>96.0260381354974</v>
       </c>
       <c r="C398">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -6194,10 +6212,10 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>101.4149890302218</v>
+        <v>155</v>
       </c>
       <c r="C399">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -6205,10 +6223,10 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>66.18912297349165</v>
+        <v>106.5504575306929</v>
       </c>
       <c r="C400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -6216,10 +6234,10 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>94.76286192385707</v>
+        <v>92.04890004774636</v>
       </c>
       <c r="C401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -6227,10 +6245,10 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>96.89685237405806</v>
+        <v>101.965680500843</v>
       </c>
       <c r="C402">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -6238,10 +6256,10 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>71.5122367151245</v>
+        <v>110.1135777277262</v>
       </c>
       <c r="C403">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -6249,7 +6267,7 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>92.69843580125827</v>
+        <v>90.27181176868004</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -6260,10 +6278,10 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>100.4987562112089</v>
+        <v>103.4456378974</v>
       </c>
       <c r="C405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -6271,7 +6289,7 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>97.58073580374356</v>
+        <v>125.9364919314493</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -6282,10 +6300,10 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>74.09453421137081</v>
+        <v>88.29496021857646</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6293,10 +6311,10 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>70.8590149522275</v>
+        <v>119.5198728245642</v>
       </c>
       <c r="C408">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -6304,10 +6322,10 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>85.70297544426332</v>
+        <v>96.64884893261792</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -6315,7 +6333,7 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>96.93812459502195</v>
+        <v>85.37564055396598</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -6326,10 +6344,10 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>72.69112738154499</v>
+        <v>90.82400563727631</v>
       </c>
       <c r="C411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -6337,7 +6355,7 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>91.8313671900838</v>
+        <v>108.8531120363584</v>
       </c>
       <c r="C412">
         <v>3</v>
@@ -6348,10 +6366,10 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>78.18567643756751</v>
+        <v>87.59566199304621</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -6359,7 +6377,7 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>74.06078584514209</v>
+        <v>81.02468759581859</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -6370,10 +6388,10 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>74.06078584514209</v>
+        <v>121.8277472499594</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -6381,7 +6399,7 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>116.9316039400811</v>
+        <v>94.33981132056604</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -6392,7 +6410,7 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>100.1249219725039</v>
+        <v>89</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -6403,7 +6421,7 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>116.1808934377766</v>
+        <v>104.3503713457695</v>
       </c>
       <c r="C418">
         <v>3</v>
@@ -6414,10 +6432,10 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>88.58893836140041</v>
+        <v>124.1974234837422</v>
       </c>
       <c r="C419">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6425,10 +6443,10 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>85.90692637965812</v>
+        <v>100.4241006930109</v>
       </c>
       <c r="C420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -6436,10 +6454,10 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>106.1508360777248</v>
+        <v>98.60020283954795</v>
       </c>
       <c r="C421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -6447,10 +6465,10 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>80.06247560499239</v>
+        <v>81.25269226308751</v>
       </c>
       <c r="C422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -6458,7 +6476,7 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>83.52245207128441</v>
+        <v>90.7358804442873</v>
       </c>
       <c r="C423">
         <v>3</v>
@@ -6469,10 +6487,10 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>94.15412895885129</v>
+        <v>97.61659694949419</v>
       </c>
       <c r="C424">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -6480,10 +6498,10 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>82.21921916437786</v>
+        <v>134.2721117730707</v>
       </c>
       <c r="C425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -6491,10 +6509,10 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>93.47726996441435</v>
+        <v>106.7754653466797</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -6502,10 +6520,10 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>108.5771615027764</v>
+        <v>80.05623023850174</v>
       </c>
       <c r="C427">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -6513,10 +6531,10 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>124.6515142306743</v>
+        <v>99.15644204992432</v>
       </c>
       <c r="C428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -6524,10 +6542,10 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>133.0601367803295</v>
+        <v>78.92401408950256</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -6535,10 +6553,10 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>106.8269628885891</v>
+        <v>81.39410298049853</v>
       </c>
       <c r="C430">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -6546,10 +6564,10 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>102.0784012413988</v>
+        <v>70.45565981523414</v>
       </c>
       <c r="C431">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -6557,10 +6575,10 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>100.4041831797859</v>
+        <v>75.76938695805846</v>
       </c>
       <c r="C432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -6568,10 +6586,10 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>85.15867542417507</v>
+        <v>76.55716818169282</v>
       </c>
       <c r="C433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -6579,7 +6597,7 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>106.4001879697588</v>
+        <v>104.0624812312295</v>
       </c>
       <c r="C434">
         <v>3</v>
@@ -6590,10 +6608,10 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>139.0143877445784</v>
+        <v>107.298648640139</v>
       </c>
       <c r="C435">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -6601,7 +6619,7 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>100.4987562112089</v>
+        <v>75.13321502504735</v>
       </c>
       <c r="C436">
         <v>3</v>
@@ -6612,10 +6630,10 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>87.96590248499699</v>
+        <v>111.400179533069</v>
       </c>
       <c r="C437">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -6623,10 +6641,10 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>117.5159563633807</v>
+        <v>66</v>
       </c>
       <c r="C438">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -6634,7 +6652,7 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>100.2397126891333</v>
+        <v>67.44627491566899</v>
       </c>
       <c r="C439">
         <v>2</v>
@@ -6645,10 +6663,10 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>113.8507795318065</v>
+        <v>90.52071586106685</v>
       </c>
       <c r="C440">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -6656,7 +6674,7 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>94.25497334358543</v>
+        <v>75.47184905645283</v>
       </c>
       <c r="C441">
         <v>3</v>
@@ -6667,10 +6685,10 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>99.53893710503444</v>
+        <v>81.68843247363729</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -6678,10 +6696,10 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>93.13431161500041</v>
+        <v>63.28506932918696</v>
       </c>
       <c r="C443">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -6689,10 +6707,10 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>98.68130522039117</v>
+        <v>78.00640999302557</v>
       </c>
       <c r="C444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -6700,10 +6718,10 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>123.3288287465668</v>
+        <v>86.97700845625813</v>
       </c>
       <c r="C445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -6711,10 +6729,10 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>128.8177006470772</v>
+        <v>61.03277807866851</v>
       </c>
       <c r="C446">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -6722,7 +6740,7 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>100.5783276854413</v>
+        <v>84.86459803710851</v>
       </c>
       <c r="C447">
         <v>3</v>
@@ -6733,10 +6751,10 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>96.08329719571451</v>
+        <v>72.00694410957877</v>
       </c>
       <c r="C448">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -6744,10 +6762,10 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>133.6600164596728</v>
+        <v>77.79460135510689</v>
       </c>
       <c r="C449">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -6755,7 +6773,7 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>98.85848471426213</v>
+        <v>64.66065264130884</v>
       </c>
       <c r="C450">
         <v>2</v>
@@ -6766,10 +6784,10 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>110.9233969908964</v>
+        <v>108.4066418629412</v>
       </c>
       <c r="C451">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -6777,10 +6795,10 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>109.2520022699813</v>
+        <v>58.18075283115542</v>
       </c>
       <c r="C452">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -6788,10 +6806,10 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>111.8033988749895</v>
+        <v>77.15568676384133</v>
       </c>
       <c r="C453">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -6799,7 +6817,7 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>119.0378091196238</v>
+        <v>92.0869154657707</v>
       </c>
       <c r="C454">
         <v>4</v>
@@ -6810,10 +6828,10 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>117.8346298844274</v>
+        <v>51.35172830587107</v>
       </c>
       <c r="C455">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -6821,10 +6839,10 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>106.0047168761843</v>
+        <v>52.55473337388365</v>
       </c>
       <c r="C456">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -6832,10 +6850,10 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>116.777566338745</v>
+        <v>59.64059020499378</v>
       </c>
       <c r="C457">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -6843,10 +6861,10 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>118.1058846967415</v>
+        <v>53.71219600798314</v>
       </c>
       <c r="C458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -6854,10 +6872,10 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>114.4901742508937</v>
+        <v>75.6042326857432</v>
       </c>
       <c r="C459">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -6865,10 +6883,10 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>146.5776244861405</v>
+        <v>84.21995013059554</v>
       </c>
       <c r="C460">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -6876,10 +6894,10 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>125.7815566766448</v>
+        <v>125.5428213797985</v>
       </c>
       <c r="C461">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -6887,7 +6905,7 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>111.0405331399305</v>
+        <v>111.3283432015405</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -6898,10 +6916,10 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>136.8247053715081</v>
+        <v>39.82461550347976</v>
       </c>
       <c r="C463">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -6909,7 +6927,7 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>116.2110149684616</v>
+        <v>66.03786792439622</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -6920,7 +6938,7 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>118.9033220730186</v>
+        <v>121.1651765153668</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -6931,10 +6949,10 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>114.9826073804208</v>
+        <v>77.87810988975015</v>
       </c>
       <c r="C466">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -6942,7 +6960,7 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>130.6483830745716</v>
+        <v>112.6410227226298</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -6953,7 +6971,7 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>128.8099375048369</v>
+        <v>118.1397477566293</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -6964,10 +6982,10 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>135.5175265417724</v>
+        <v>124.907966119059</v>
       </c>
       <c r="C469">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -6975,10 +6993,10 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>148.1890684227416</v>
+        <v>81.70679286326198</v>
       </c>
       <c r="C470">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -6986,7 +7004,7 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>127.8827588066507</v>
+        <v>114.2365965879586</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -6997,10 +7015,10 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>153.4959282847594</v>
+        <v>87.93179174792243</v>
       </c>
       <c r="C472">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -7008,7 +7026,7 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>146.3215636876534</v>
+        <v>106.2308806327049</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -7019,10 +7037,10 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>160.0656115472652</v>
+        <v>96.6902270139025</v>
       </c>
       <c r="C474">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -7030,7 +7048,7 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>154.7384890710776</v>
+        <v>98.73196037757987</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -7041,9 +7059,75 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>171.9651127409278</v>
+        <v>309.1100127786222</v>
       </c>
       <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477">
+        <v>313.676585036244</v>
+      </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478">
+        <v>323.0975085016905</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479">
+        <v>312.795460325114</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480">
+        <v>320.9298988875919</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481">
+        <v>318.4415173936966</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>483</v>
+      </c>
+      <c r="B482">
+        <v>325.8972230627318</v>
+      </c>
+      <c r="C482">
         <v>1</v>
       </c>
     </row>

--- a/feature_extraction/feature/p2-fro_degreedata.xlsx
+++ b/feature_extraction/feature/p2-fro_degreedata.xlsx
@@ -1845,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>304.0213808270727</v>
+        <v>144.5544879967412</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>300.6010645357065</v>
+        <v>139.4417441084269</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>299.9616642172796</v>
+        <v>139.2623423614582</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1878,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>299.5062603686274</v>
+        <v>139.0575420464492</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>295.4894245146516</v>
+        <v>133.9589489358587</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>296.4456105257759</v>
+        <v>137.0875632579411</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>293.901343991483</v>
+        <v>132.8344834747363</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>291.6864755178066</v>
+        <v>130.6981254647518</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>292.8651566847788</v>
+        <v>132.9097438113549</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>291.2335832283084</v>
+        <v>132.2800060477773</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>299.7215374309961</v>
+        <v>151.4331535694876</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>290.66303514551</v>
+        <v>132.8533025558642</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1977,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>288.9238654040195</v>
+        <v>130.2919797992186</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>285.3769437077915</v>
+        <v>124.9519907804594</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1999,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>285.9545418418809</v>
+        <v>128.0820049811838</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>281.3965173913849</v>
+        <v>121.5113163454334</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2021,7 +2021,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>280.0071427660373</v>
+        <v>118.0381294328235</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>280.349781523011</v>
+        <v>118.7139418939494</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>284.177761269245</v>
+        <v>129.2826361117378</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>282.2853166567471</v>
+        <v>126.317061397105</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2065,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>278.2588722754406</v>
+        <v>116.7261752992875</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2076,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>280.5851029545225</v>
+        <v>121.7579566188592</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2087,7 +2087,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>282.2853166567471</v>
+        <v>125.5388386118017</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2098,7 +2098,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>279.8731855680354</v>
+        <v>122.0901306412603</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2109,7 +2109,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>277.5842214535978</v>
+        <v>116.5589979366673</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2120,7 +2120,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>277.8488797889961</v>
+        <v>118.6802426691149</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>276.0652096878562</v>
+        <v>114.109596441316</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2142,7 +2142,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>285.3086048474528</v>
+        <v>136.7406303919943</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2153,7 +2153,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>278.4977558257876</v>
+        <v>120.9049213225004</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2164,7 +2164,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>281.5848007261756</v>
+        <v>131.2288078129189</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -2175,7 +2175,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>278.7561658510893</v>
+        <v>126.2695529413168</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2186,7 +2186,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>276.9259828907356</v>
+        <v>122.1024160285127</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2197,7 +2197,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>275.3942628305826</v>
+        <v>119.1007976463634</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>272.9468812791236</v>
+        <v>115.5205609404664</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>270.4163456597992</v>
+        <v>109.1787525116494</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>269.7424697744128</v>
+        <v>109.0412765882718</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2241,7 +2241,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>270.1592123174777</v>
+        <v>109.6585609973065</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>269.0724809414742</v>
+        <v>108.9082182390291</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2263,7 +2263,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>268.0466377330632</v>
+        <v>106.169675519896</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2274,7 +2274,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>266.8276597356428</v>
+        <v>106.3014581273465</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2285,7 +2285,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>267.9178978717174</v>
+        <v>108.5218871933215</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -2296,7 +2296,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>274.7216773390844</v>
+        <v>127.8006259765577</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2307,7 +2307,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>265.2772134956186</v>
+        <v>105.0190458916858</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2318,7 +2318,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>269.4661388746275</v>
+        <v>114.9478142462918</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2329,7 +2329,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>263.4274093559742</v>
+        <v>102.2594738887307</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -2340,7 +2340,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>271.4498111990502</v>
+        <v>123.2233744059949</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2351,7 +2351,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>261.7651619295432</v>
+        <v>100.8067458060223</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2362,7 +2362,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>261.9198350640898</v>
+        <v>104.1777327455344</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -2373,7 +2373,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>261.0842775810141</v>
+        <v>105.1189802081432</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -2384,7 +2384,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>256.7800615312646</v>
+        <v>96.317184344228</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2395,7 +2395,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>257.526697645118</v>
+        <v>97.8008179924892</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2406,7 +2406,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>262.4290380274256</v>
+        <v>112.3298713610943</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -2417,7 +2417,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>262.9448611401257</v>
+        <v>115</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -2428,7 +2428,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>254.6369965264278</v>
+        <v>93.55746896961247</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>256.1640099623677</v>
+        <v>101.5332457867865</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2450,7 +2450,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>265.0358466321113</v>
+        <v>125.1598977308627</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>252.3529274646918</v>
+        <v>96.60745312862771</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -2472,7 +2472,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>249.8019215298393</v>
+        <v>89.05054744357274</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -2483,7 +2483,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>250.353749722268</v>
+        <v>90.52071586106685</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>267.4023186137323</v>
+        <v>132.6536844569347</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2505,7 +2505,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>260.2786967848118</v>
+        <v>117.4563748802082</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2516,7 +2516,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>247.1295206971438</v>
+        <v>85.47514258543241</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -2527,7 +2527,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>258.0697580112788</v>
+        <v>115.3126185636247</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>251.8571023417843</v>
+        <v>100.4041831797859</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -2549,7 +2549,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>261.4804007951648</v>
+        <v>123.9879026357007</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2560,7 +2560,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>243.402958075698</v>
+        <v>82.37718130647589</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>243.6657546722559</v>
+        <v>82.76472678623425</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -2582,7 +2582,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>257.846853771769</v>
+        <v>118.928549978548</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>245.3507693079441</v>
+        <v>90.91754506144565</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2604,7 +2604,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>256.6729436461895</v>
+        <v>120.6150902665168</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2615,7 +2615,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>239.0188277102873</v>
+        <v>77.10382610480494</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2626,7 +2626,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>246.1747346906258</v>
+        <v>96.40020746865642</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2637,7 +2637,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>239.6413987607316</v>
+        <v>80.65358020571685</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>243.402958075698</v>
+        <v>90.97252332435328</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -2659,7 +2659,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>249.1947029934625</v>
+        <v>108.2081327812286</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2670,7 +2670,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>244.0081965836394</v>
+        <v>97.18538984847466</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>240.2519510846894</v>
+        <v>87.13208364316786</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -2692,7 +2692,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>236.0084744241189</v>
+        <v>74.06078584514209</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>236.763595174596</v>
+        <v>76.15773105863909</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>239.8853893008076</v>
+        <v>85.0881895447306</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -2725,7 +2725,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>245.3263133053607</v>
+        <v>99.15644204992432</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -2736,7 +2736,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>247.0323865407125</v>
+        <v>103.2472759931225</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2747,7 +2747,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>258.5652722234755</v>
+        <v>132.3064624271997</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>239.7081558896151</v>
+        <v>89.40357934669059</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2769,7 +2769,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>235.5525419094432</v>
+        <v>77.25283166331187</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -2780,7 +2780,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>234.4184293096428</v>
+        <v>73.16419889536138</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -2791,7 +2791,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>236.1778990506944</v>
+        <v>78.39005038906404</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2802,7 +2802,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>250.505488961819</v>
+        <v>117.00427342623</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -2813,7 +2813,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>246.6779276708802</v>
+        <v>106.9626102897643</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>261.7059418507727</v>
+        <v>141.9048977308395</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2835,7 +2835,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>239.701898198575</v>
+        <v>94.79451460923254</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2846,7 +2846,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>231.0346294389653</v>
+        <v>69.06518659932803</v>
       </c>
       <c r="C93">
         <v>3</v>
@@ -2857,7 +2857,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>230.5558500667463</v>
+        <v>70.09279563550022</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2868,7 +2868,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>239.841614404173</v>
+        <v>95.46203433826454</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -2879,7 +2879,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>264.3198819612327</v>
+        <v>148.9227987918572</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2890,7 +2890,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>229.9652147608416</v>
+        <v>72.91776189653656</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -2901,7 +2901,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>229.5931183637698</v>
+        <v>70.9365914038728</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>231.6570741419307</v>
+        <v>77.17512552629896</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -2923,7 +2923,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>243.3289953951234</v>
+        <v>106.8269628885891</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -2934,7 +2934,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>255.3605294480727</v>
+        <v>131.7269904006009</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -2945,7 +2945,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>229.8368986912241</v>
+        <v>74.79304780526061</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -2956,7 +2956,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>235.7222942362474</v>
+        <v>93.38094023943002</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2967,7 +2967,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>224.501670372405</v>
+        <v>64.03124237432849</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>224.501670372405</v>
+        <v>63.56099432828282</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -2989,7 +2989,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>233.5208770110287</v>
+        <v>89.8276126811795</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -3000,7 +3000,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>232.0021551624036</v>
+        <v>89.14033879226621</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3011,7 +3011,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>229.4449825121482</v>
+        <v>80.80841540334769</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>254.7724474899121</v>
+        <v>139.5564401953561</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -3033,7 +3033,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>223.2935287911407</v>
+        <v>65</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3044,7 +3044,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>223.6358647444546</v>
+        <v>65.39113089708727</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>235.3040586135309</v>
+        <v>97.61659694949419</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -3066,7 +3066,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>240.9502023240487</v>
+        <v>113.5341358358798</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -3077,7 +3077,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>245.1060994753089</v>
+        <v>120.4408568551387</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -3088,7 +3088,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>248.766959220874</v>
+        <v>131.9469590403659</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>242.8703357761091</v>
+        <v>120.3536455617361</v>
       </c>
       <c r="C116">
         <v>7</v>
@@ -3110,7 +3110,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>219.0022830931221</v>
+        <v>57.0350769263968</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>243.2858401140518</v>
+        <v>120.7683733433551</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>216.453228204155</v>
+        <v>55.54277630799526</v>
       </c>
       <c r="C119">
         <v>3</v>
@@ -3143,7 +3143,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>230.4647478466067</v>
+        <v>99.32270636667126</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -3154,7 +3154,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>219.8658682015014</v>
+        <v>70.83784299369935</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3165,7 +3165,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>231.1925604339378</v>
+        <v>99.32270636667126</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>216.8432613663611</v>
+        <v>62.12889826803627</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3187,7 +3187,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>221.2894032709203</v>
+        <v>79.51100552753688</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>219.0205469813278</v>
+        <v>72.83543093852057</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>213.3963448609184</v>
+        <v>52.88667128870941</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -3220,7 +3220,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>226.4906179072325</v>
+        <v>91.52595260361949</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>221.4497685706625</v>
+        <v>82.00609733428362</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>219.0182640785923</v>
+        <v>75.07329751649384</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>212.0023584774471</v>
+        <v>50.03998401278722</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -3264,7 +3264,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>248.5739326639059</v>
+        <v>142.3376267892647</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3275,7 +3275,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>214.7673159491453</v>
+        <v>66.48308055437865</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>210.3425777154972</v>
+        <v>49.24428900898052</v>
       </c>
       <c r="C133">
         <v>3</v>
@@ -3297,7 +3297,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>212.607619807005</v>
+        <v>61.71709649683789</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -3308,7 +3308,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>241.1389640850271</v>
+        <v>131.3202193114221</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -3319,7 +3319,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>208.0865204668481</v>
+        <v>46.52956049652737</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -3330,7 +3330,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>209.057408383439</v>
+        <v>50.15974481593781</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -3341,7 +3341,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>230.7661153635863</v>
+        <v>112.4010676105881</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -3352,7 +3352,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>226.9317077889293</v>
+        <v>102.4158190906073</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>235.8346878641902</v>
+        <v>120.702112657567</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -3374,7 +3374,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>217.8921751692795</v>
+        <v>84.38009243891595</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>208.6264604502506</v>
+        <v>55.60575509783138</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>205.0097558654222</v>
+        <v>43.01162633521314</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -3407,7 +3407,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>205.5480479109447</v>
+        <v>45.22167621838005</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -3418,7 +3418,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>207.8003849852064</v>
+        <v>54.20332093147061</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -3429,7 +3429,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>229.8717033477587</v>
+        <v>111.6154111222998</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -3440,7 +3440,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>230.3584163862914</v>
+        <v>115.8792474949678</v>
       </c>
       <c r="C147">
         <v>3</v>
@@ -3451,7 +3451,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>222.5690903966676</v>
+        <v>99.31767214348109</v>
       </c>
       <c r="C148">
         <v>6</v>
@@ -3462,7 +3462,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>208.9042843026442</v>
+        <v>60.8276253029822</v>
       </c>
       <c r="C149">
         <v>3</v>
@@ -3473,7 +3473,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>219.4925966860841</v>
+        <v>90.35485598461214</v>
       </c>
       <c r="C150">
         <v>5</v>
@@ -3484,7 +3484,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>240.2165689539337</v>
+        <v>136.9707998078423</v>
       </c>
       <c r="C151">
         <v>3</v>
@@ -3495,7 +3495,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>224.082574065901</v>
+        <v>105.8489489791939</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -3506,7 +3506,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>203.5411506305298</v>
+        <v>47.70744176750625</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -3517,7 +3517,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>235.9830502387831</v>
+        <v>127.4401820463232</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>201.0099500024812</v>
+        <v>39.11521443121589</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -3539,7 +3539,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>232.071109791805</v>
+        <v>121.433109158911</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>225.0022222112484</v>
+        <v>110.3856874780422</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -3561,7 +3561,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>200.4120754844877</v>
+        <v>46.86149805543992</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -3572,7 +3572,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>210.440015206234</v>
+        <v>80.95677859203639</v>
       </c>
       <c r="C159">
         <v>5</v>
@@ -3583,7 +3583,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>216.1712284278368</v>
+        <v>94.70480452437458</v>
       </c>
       <c r="C160">
         <v>2</v>
@@ -3594,7 +3594,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>232.4672019877213</v>
+        <v>130.5067048086036</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -3605,7 +3605,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>196.2549362436522</v>
+        <v>35.17101079013795</v>
       </c>
       <c r="C162">
         <v>4</v>
@@ -3616,7 +3616,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>196.91876497683</v>
+        <v>38.47076812334269</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -3627,7 +3627,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>198.9271223337833</v>
+        <v>47.38143096192854</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>215.188289644209</v>
+        <v>97.73944955850733</v>
       </c>
       <c r="C165">
         <v>5</v>
@@ -3649,7 +3649,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>210.7723890835799</v>
+        <v>87.46427842267951</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -3660,7 +3660,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>208.568933448872</v>
+        <v>81.93900170248598</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -3671,7 +3671,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>195.9234544407586</v>
+        <v>38.58756276314948</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -3682,7 +3682,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>201.9207765436732</v>
+        <v>65.36818798161687</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -3693,7 +3693,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>201.37527157027</v>
+        <v>61.91122676865643</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -3704,7 +3704,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>209.8475637218598</v>
+        <v>85.23496934944014</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -3715,7 +3715,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>215.5736533067063</v>
+        <v>98.35141076771599</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -3726,7 +3726,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>197.5170878683665</v>
+        <v>53.00943312279428</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>216.9101196348386</v>
+        <v>102.7861858422619</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -3748,7 +3748,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>197.4335331193766</v>
+        <v>54.08326913195984</v>
       </c>
       <c r="C175">
         <v>3</v>
@@ -3759,7 +3759,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>207.2389924700465</v>
+        <v>82.63776376451628</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -3770,7 +3770,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>225.8871399615304</v>
+        <v>121.7538500417954</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -3781,7 +3781,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>191.3765920900464</v>
+        <v>31.78049716414141</v>
       </c>
       <c r="C178">
         <v>3</v>
@@ -3792,7 +3792,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>191.8462926407493</v>
+        <v>33.61547262794322</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -3803,7 +3803,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>193.8298222668535</v>
+        <v>43.18564576337837</v>
       </c>
       <c r="C180">
         <v>3</v>
@@ -3814,7 +3814,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>200.5043640422821</v>
+        <v>66.64082832618455</v>
       </c>
       <c r="C181">
         <v>3</v>
@@ -3825,7 +3825,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>220.9117470846673</v>
+        <v>113.758516164725</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -3836,7 +3836,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>223.6604569431083</v>
+        <v>122.2497443760109</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -3847,7 +3847,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>208.9712898940905</v>
+        <v>92.34717104492157</v>
       </c>
       <c r="C184">
         <v>4</v>
@@ -3858,7 +3858,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>201.8018830437417</v>
+        <v>74.46475676452586</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -3869,7 +3869,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>212.8966885604377</v>
+        <v>102.6157882589224</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -3880,7 +3880,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>224.9555511651135</v>
+        <v>123.9758040909596</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -3891,7 +3891,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>201.6754819009986</v>
+        <v>76.55063683601855</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -3902,7 +3902,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>226.8766184515275</v>
+        <v>128.6545762886031</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>229.7128642457797</v>
+        <v>133.5552320203143</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -3924,7 +3924,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>226.9273011340857</v>
+        <v>133.1803288778039</v>
       </c>
       <c r="C191">
         <v>2</v>
@@ -3935,7 +3935,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>187.181729877678</v>
+        <v>32.55764119219941</v>
       </c>
       <c r="C192">
         <v>4</v>
@@ -3946,7 +3946,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>186.2686232300008</v>
+        <v>25.63201123595259</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>196.0612149304395</v>
+        <v>65.55150646628954</v>
       </c>
       <c r="C194">
         <v>2</v>
@@ -3968,7 +3968,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>218.8926677620792</v>
+        <v>120.2206305090769</v>
       </c>
       <c r="C195">
         <v>3</v>
@@ -3979,7 +3979,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>190.3943276465977</v>
+        <v>49.64876634922564</v>
       </c>
       <c r="C196">
         <v>3</v>
@@ -3990,7 +3990,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>190.1578291840754</v>
+        <v>53.71219600798314</v>
       </c>
       <c r="C197">
         <v>4</v>
@@ -4001,7 +4001,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>185.8278773489059</v>
+        <v>33.30165161069343</v>
       </c>
       <c r="C198">
         <v>4</v>
@@ -4012,7 +4012,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>187.8829422805593</v>
+        <v>43.04648650006177</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -4023,7 +4023,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>204.8316381812146</v>
+        <v>91.67878707749138</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>216.453228204155</v>
+        <v>115.1216747619665</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -4045,7 +4045,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>211.482859825566</v>
+        <v>109.0412765882718</v>
       </c>
       <c r="C202">
         <v>5</v>
@@ -4056,7 +4056,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>197.7725966861941</v>
+        <v>76.92203845452875</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -4067,7 +4067,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>226.8149025086315</v>
+        <v>134.6476884316994</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -4078,7 +4078,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>201.2958022413781</v>
+        <v>89.26925562588724</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -4089,7 +4089,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>189.5600168811978</v>
+        <v>55.71355310873648</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -4100,7 +4100,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>193.3520105920805</v>
+        <v>69.6419413859206</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -4111,7 +4111,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>200.3921156133644</v>
+        <v>87.0976463516667</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -4122,7 +4122,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>202.6055280588365</v>
+        <v>95.70788891204319</v>
       </c>
       <c r="C209">
         <v>4</v>
@@ -4133,7 +4133,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>195</v>
+        <v>78.10249675906654</v>
       </c>
       <c r="C210">
         <v>4</v>
@@ -4144,7 +4144,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>183.7634348830039</v>
+        <v>42.04759208325728</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>220.6399782451041</v>
+        <v>131.1068266719929</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>181.0248601711931</v>
+        <v>32.7566787083184</v>
       </c>
       <c r="C213">
         <v>2</v>
@@ -4177,7 +4177,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>181.6645259812713</v>
+        <v>34.48187929913333</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>196.4001018329675</v>
+        <v>85.51023330572779</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -4199,7 +4199,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>180.8535318980528</v>
+        <v>36.6742416417845</v>
       </c>
       <c r="C216">
         <v>7</v>
@@ -4210,7 +4210,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>179.3543977715629</v>
+        <v>28.0178514522438</v>
       </c>
       <c r="C217">
         <v>4</v>
@@ -4221,7 +4221,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>178.1375872745558</v>
+        <v>17.08800749063506</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -4232,7 +4232,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>178.5497129653251</v>
+        <v>20.6155281280883</v>
       </c>
       <c r="C219">
         <v>4</v>
@@ -4243,7 +4243,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>198.5673689204749</v>
+        <v>90.2551937563706</v>
       </c>
       <c r="C220">
         <v>3</v>
@@ -4254,7 +4254,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>185.9462287867113</v>
+        <v>62.5859409132754</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -4265,7 +4265,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>176.7257762749962</v>
+        <v>22.02271554554524</v>
       </c>
       <c r="C222">
         <v>3</v>
@@ -4276,7 +4276,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>214.478437144623</v>
+        <v>125.674181914982</v>
       </c>
       <c r="C223">
         <v>4</v>
@@ -4287,7 +4287,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>182.8496650256708</v>
+        <v>55.54277630799526</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>193.6853117817662</v>
+        <v>83.02409288875127</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -4309,7 +4309,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>202.0544481074346</v>
+        <v>100.8414597276338</v>
       </c>
       <c r="C226">
         <v>7</v>
@@ -4320,7 +4320,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>212.1909517392294</v>
+        <v>119.7079780131634</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -4331,7 +4331,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>216.6033240742164</v>
+        <v>130.5526713629407</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>183.7307813078691</v>
+        <v>59.22837157984339</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -4353,7 +4353,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>205.0097558654222</v>
+        <v>111.5437134042076</v>
       </c>
       <c r="C230">
         <v>3</v>
@@ -4364,7 +4364,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>175.0942603285442</v>
+        <v>28.23118842698621</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -4375,7 +4375,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>180.3607496103296</v>
+        <v>51.19570294468082</v>
       </c>
       <c r="C232">
         <v>3</v>
@@ -4386,7 +4386,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>215.8008341040414</v>
+        <v>128.4717867860489</v>
       </c>
       <c r="C233">
         <v>2</v>
@@ -4397,7 +4397,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>207.460839678239</v>
+        <v>117.4265728019003</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -4408,7 +4408,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>200.4819193842677</v>
+        <v>104.4796630928718</v>
       </c>
       <c r="C235">
         <v>5</v>
@@ -4419,7 +4419,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>187.2431574183687</v>
+        <v>73.68174807915459</v>
       </c>
       <c r="C236">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>190.5177157116891</v>
+        <v>85.47514258543241</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -4441,7 +4441,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>175.8465239918037</v>
+        <v>42.95346318982906</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>172.0523176246109</v>
+        <v>20.12461179749811</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -4463,7 +4463,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>183.2948444446815</v>
+        <v>65.62011886609167</v>
       </c>
       <c r="C240">
         <v>3</v>
@@ -4474,7 +4474,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>173.4416328336423</v>
+        <v>38.63935817272331</v>
       </c>
       <c r="C241">
         <v>3</v>
@@ -4485,7 +4485,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>175.1485084150019</v>
+        <v>45.5411901469428</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -4496,7 +4496,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>201.1019641873246</v>
+        <v>108.2266141020775</v>
       </c>
       <c r="C243">
         <v>4</v>
@@ -4507,7 +4507,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>169.3074127142695</v>
+        <v>22.80350850198276</v>
       </c>
       <c r="C244">
         <v>4</v>
@@ -4518,7 +4518,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>201.0795862339089</v>
+        <v>113.1105653774218</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -4529,7 +4529,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>177.1157813409071</v>
+        <v>58.21511831131154</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>213.4900466063933</v>
+        <v>132.0946630261798</v>
       </c>
       <c r="C247">
         <v>2</v>
@@ -4551,7 +4551,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>179.0111728356641</v>
+        <v>68.11754546370561</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -4562,7 +4562,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>168.6890630716763</v>
+        <v>31.25699921617557</v>
       </c>
       <c r="C249">
         <v>3</v>
@@ -4573,7 +4573,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>182.1565260977492</v>
+        <v>74.10802925459562</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -4584,7 +4584,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>167.6931721925493</v>
+        <v>34.05877273185281</v>
       </c>
       <c r="C251">
         <v>3</v>
@@ -4595,7 +4595,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>197.4740489279541</v>
+        <v>109.0183470797462</v>
       </c>
       <c r="C252">
         <v>3</v>
@@ -4606,7 +4606,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>183.3712082089225</v>
+        <v>85.00588214941364</v>
       </c>
       <c r="C253">
         <v>3</v>
@@ -4617,7 +4617,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>178.6001119820478</v>
+        <v>74.00675644831355</v>
       </c>
       <c r="C254">
         <v>3</v>
@@ -4628,7 +4628,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>163</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="C255">
         <v>3</v>
@@ -4639,7 +4639,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>165.5596569216063</v>
+        <v>28.0178514522438</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -4650,7 +4650,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>192.8159744419533</v>
+        <v>102.0049018429997</v>
       </c>
       <c r="C257">
         <v>4</v>
@@ -4661,7 +4661,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>169.4992625352689</v>
+        <v>54.00925846556311</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>172.1685220939066</v>
+        <v>60.00833275470999</v>
       </c>
       <c r="C259">
         <v>3</v>
@@ -4683,7 +4683,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>190.541334098405</v>
+        <v>106.0424443324464</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -4694,7 +4694,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>164.453640883989</v>
+        <v>41.10960958218893</v>
       </c>
       <c r="C261">
         <v>3</v>
@@ -4705,7 +4705,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>172.0116275139562</v>
+        <v>67.11929677819934</v>
       </c>
       <c r="C262">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>179.980554505202</v>
+        <v>89.14033879226621</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -4727,7 +4727,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>161.533278305122</v>
+        <v>39.319206502675</v>
       </c>
       <c r="C264">
         <v>3</v>
@@ -4738,7 +4738,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>194.6124353683495</v>
+        <v>114.109596441316</v>
       </c>
       <c r="C265">
         <v>5</v>
@@ -4749,7 +4749,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>171.3971995103771</v>
+        <v>72.24956747275377</v>
       </c>
       <c r="C266">
         <v>3</v>
@@ -4760,7 +4760,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>166.7842918262988</v>
+        <v>60.29925372672534</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>157.9905060438759</v>
+        <v>24.73863375370596</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -4782,7 +4782,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>188.6054081939328</v>
+        <v>105.1712888577486</v>
       </c>
       <c r="C269">
         <v>3</v>
@@ -4793,7 +4793,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>163.1747529491006</v>
+        <v>50.48762224545735</v>
       </c>
       <c r="C270">
         <v>3</v>
@@ -4804,7 +4804,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>189.2511558749378</v>
+        <v>111.2879148874666</v>
       </c>
       <c r="C271">
         <v>3</v>
@@ -4815,7 +4815,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>165.2755275290326</v>
+        <v>59.53990258641679</v>
       </c>
       <c r="C272">
         <v>5</v>
@@ -4826,7 +4826,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>195.8494319624134</v>
+        <v>120.2663710269833</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>152.0032894380908</v>
+        <v>10.19803902718557</v>
       </c>
       <c r="C274">
         <v>4</v>
@@ -4848,7 +4848,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>154.3534904043313</v>
+        <v>34.78505426185217</v>
       </c>
       <c r="C275">
         <v>3</v>
@@ -4859,7 +4859,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>188.403821617291</v>
+        <v>113.6353818139403</v>
       </c>
       <c r="C276">
         <v>3</v>
@@ -4870,7 +4870,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>149.566038925954</v>
+        <v>19.1049731745428</v>
       </c>
       <c r="C277">
         <v>5</v>
@@ -4881,7 +4881,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>149.4054885203352</v>
+        <v>16.40121946685673</v>
       </c>
       <c r="C278">
         <v>4</v>
@@ -4892,7 +4892,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>149.7765001594042</v>
+        <v>27.78488797889961</v>
       </c>
       <c r="C279">
         <v>3</v>
@@ -4903,7 +4903,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>148.0844353738772</v>
+        <v>14.56021977856104</v>
       </c>
       <c r="C280">
         <v>3</v>
@@ -4914,7 +4914,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>151.634428808236</v>
+        <v>34.92849839314596</v>
       </c>
       <c r="C281">
         <v>4</v>
@@ -4925,7 +4925,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>158.596973489408</v>
+        <v>57.72347875864725</v>
       </c>
       <c r="C282">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>171.1724276862369</v>
+        <v>86.14522621712709</v>
       </c>
       <c r="C283">
         <v>4</v>
@@ -4947,7 +4947,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>198.9095271725314</v>
+        <v>135.8307770720612</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -4958,7 +4958,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>147.0544116985274</v>
+        <v>15.8113883008419</v>
       </c>
       <c r="C285">
         <v>4</v>
@@ -4969,7 +4969,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>182.4088813627231</v>
+        <v>108.0462863776446</v>
       </c>
       <c r="C286">
         <v>4</v>
@@ -4980,7 +4980,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>192.8522750708428</v>
+        <v>128.0039061903972</v>
       </c>
       <c r="C287">
         <v>4</v>
@@ -4991,7 +4991,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>161.4837453120282</v>
+        <v>71.80529228406496</v>
       </c>
       <c r="C288">
         <v>3</v>
@@ -5002,7 +5002,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>162.3483908143225</v>
+        <v>71.80529228406496</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -5013,7 +5013,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>153.3786165017797</v>
+        <v>53.75872022286245</v>
       </c>
       <c r="C290">
         <v>2</v>
@@ -5024,7 +5024,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>190.7904609774818</v>
+        <v>124.1692393469494</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -5035,7 +5035,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>166.2077013859466</v>
+        <v>85.90692637965812</v>
       </c>
       <c r="C292">
         <v>4</v>
@@ -5046,7 +5046,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>148.677503341965</v>
+        <v>42.04759208325728</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -5057,7 +5057,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>143.5896932234344</v>
+        <v>23.60084744241189</v>
       </c>
       <c r="C294">
         <v>4</v>
@@ -5068,7 +5068,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>143.8923208513922</v>
+        <v>24.20743687382041</v>
       </c>
       <c r="C295">
         <v>4</v>
@@ -5079,7 +5079,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>194.5584745005984</v>
+        <v>135.4843164355196</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -5090,7 +5090,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>152.2793485670332</v>
+        <v>59.46427498927402</v>
       </c>
       <c r="C297">
         <v>2</v>
@@ -5101,7 +5101,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>175</v>
+        <v>108.2589488217949</v>
       </c>
       <c r="C298">
         <v>4</v>
@@ -5112,7 +5112,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>169.1892431568863</v>
+        <v>98.48857801796105</v>
       </c>
       <c r="C299">
         <v>3</v>
@@ -5123,7 +5123,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>159.298462013919</v>
+        <v>78.16009211867653</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -5134,7 +5134,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>139.2910621683961</v>
+        <v>25.07987240796891</v>
       </c>
       <c r="C301">
         <v>2</v>
@@ -5145,7 +5145,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>142.1267040355189</v>
+        <v>42.43819034784589</v>
       </c>
       <c r="C302">
         <v>3</v>
@@ -5156,7 +5156,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>140.8119313126555</v>
+        <v>36.12478373637688</v>
       </c>
       <c r="C303">
         <v>5</v>
@@ -5167,7 +5167,7 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>151.2878051926195</v>
+        <v>65.55150646628954</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -5178,7 +5178,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>156.6684397062791</v>
+        <v>80.95677859203639</v>
       </c>
       <c r="C305">
         <v>3</v>
@@ -5189,7 +5189,7 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>150.3761949245957</v>
+        <v>67.77905281132217</v>
       </c>
       <c r="C306">
         <v>2</v>
@@ -5200,7 +5200,7 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>160.9099126840854</v>
+        <v>88.88756943465155</v>
       </c>
       <c r="C307">
         <v>4</v>
@@ -5211,7 +5211,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>135.0037036528998</v>
+        <v>27.07397274136177</v>
       </c>
       <c r="C308">
         <v>5</v>
@@ -5222,7 +5222,7 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>136.6235704408284</v>
+        <v>33.60059523282288</v>
       </c>
       <c r="C309">
         <v>5</v>
@@ -5233,7 +5233,7 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>139.2156600386609</v>
+        <v>42.63801121065568</v>
       </c>
       <c r="C310">
         <v>4</v>
@@ -5244,7 +5244,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>176.6946518715267</v>
+        <v>116.1808934377766</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>134.3018987207552</v>
+        <v>29.12043955712207</v>
       </c>
       <c r="C312">
         <v>4</v>
@@ -5266,7 +5266,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>140.7302383995707</v>
+        <v>50.47771785649585</v>
       </c>
       <c r="C313">
         <v>3</v>
@@ -5277,7 +5277,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>167.800476757368</v>
+        <v>103.8460398859774</v>
       </c>
       <c r="C314">
         <v>2</v>
@@ -5288,7 +5288,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>179.1340280348767</v>
+        <v>124.4266852407473</v>
       </c>
       <c r="C315">
         <v>4</v>
@@ -5299,7 +5299,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>156.2465999630072</v>
+        <v>87.92041856133307</v>
       </c>
       <c r="C316">
         <v>4</v>
@@ -5310,7 +5310,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>150.2963738750872</v>
+        <v>76.69419795525604</v>
       </c>
       <c r="C317">
         <v>3</v>
@@ -5321,7 +5321,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>148.0337799287717</v>
+        <v>72.09022125087424</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>133.1352695569435</v>
+        <v>29.8328677803526</v>
       </c>
       <c r="C319">
         <v>2</v>
@@ -5343,7 +5343,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>143.5444182126216</v>
+        <v>60.41522986797286</v>
       </c>
       <c r="C320">
         <v>4</v>
@@ -5354,7 +5354,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>170.5520448426227</v>
+        <v>113.0530848760882</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -5365,7 +5365,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>165.4146305500212</v>
+        <v>106.6067540074268</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -5376,7 +5376,7 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>160.0781059358212</v>
+        <v>98.03060746521976</v>
       </c>
       <c r="C323">
         <v>3</v>
@@ -5387,7 +5387,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>135.3403118069409</v>
+        <v>46.75467891024384</v>
       </c>
       <c r="C324">
         <v>2</v>
@@ -5398,7 +5398,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>133.3641631023867</v>
+        <v>40.45985664828782</v>
       </c>
       <c r="C325">
         <v>3</v>
@@ -5409,7 +5409,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>131.4610208388783</v>
+        <v>33.24154027718932</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>130.034610777285</v>
+        <v>32.0624390837628</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -5431,7 +5431,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>153.1698403733581</v>
+        <v>86.16263691415206</v>
       </c>
       <c r="C328">
         <v>2</v>
@@ -5442,7 +5442,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>165.2392205258788</v>
+        <v>105.9481005020855</v>
       </c>
       <c r="C329">
         <v>2</v>
@@ -5453,7 +5453,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>132.0037878244408</v>
+        <v>42.63801121065568</v>
       </c>
       <c r="C330">
         <v>3</v>
@@ -5464,7 +5464,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>141.4390328021229</v>
+        <v>65.86349520030045</v>
       </c>
       <c r="C331">
         <v>3</v>
@@ -5475,7 +5475,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>148.2228052628879</v>
+        <v>79.20227269466452</v>
       </c>
       <c r="C332">
         <v>3</v>
@@ -5486,7 +5486,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>157.8670326572334</v>
+        <v>95.85927185202274</v>
       </c>
       <c r="C333">
         <v>3</v>
@@ -5497,7 +5497,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>127.8827588066507</v>
+        <v>38.48376280978771</v>
       </c>
       <c r="C334">
         <v>2</v>
@@ -5508,7 +5508,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>131.7345816405093</v>
+        <v>48.79549159502341</v>
       </c>
       <c r="C335">
         <v>3</v>
@@ -5519,7 +5519,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>174.7254989977135</v>
+        <v>124.0403160266855</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -5530,7 +5530,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>147.1461858153313</v>
+        <v>85</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -5541,7 +5541,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>165.951800231272</v>
+        <v>112.8937553631732</v>
       </c>
       <c r="C338">
         <v>7</v>
@@ -5552,7 +5552,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>169.9176271020756</v>
+        <v>118.5959527134042</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>154.0292180074936</v>
+        <v>98.2344135219425</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -5574,7 +5574,7 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>140.9432509913121</v>
+        <v>77.89736837660179</v>
       </c>
       <c r="C341">
         <v>4</v>
@@ -5585,7 +5585,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>124.1692393469494</v>
+        <v>42.95346318982906</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -5596,7 +5596,7 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>124.1692393469494</v>
+        <v>42.15447781671598</v>
       </c>
       <c r="C343">
         <v>6</v>
@@ -5607,7 +5607,7 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>131.1030129325791</v>
+        <v>63.25345840347388</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>146.9965986001037</v>
+        <v>90.33825324855468</v>
       </c>
       <c r="C345">
         <v>4</v>
@@ -5629,7 +5629,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>156.9745202254175</v>
+        <v>109.0045870594444</v>
       </c>
       <c r="C346">
         <v>3</v>
@@ -5640,7 +5640,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>146.7310464761974</v>
+        <v>93.47192091746055</v>
       </c>
       <c r="C347">
         <v>3</v>
@@ -5651,7 +5651,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>132.5028301584536</v>
+        <v>68.60029154456998</v>
       </c>
       <c r="C348">
         <v>3</v>
@@ -5662,7 +5662,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>132.5028301584536</v>
+        <v>67.00746227100382</v>
       </c>
       <c r="C349">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>176.9180601295413</v>
+        <v>137.568164921976</v>
       </c>
       <c r="C350">
         <v>4</v>
@@ -5684,7 +5684,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>120.01666550942</v>
+        <v>42.1070065428546</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>133.7235955244997</v>
+        <v>75.45197147855052</v>
       </c>
       <c r="C352">
         <v>4</v>
@@ -5706,7 +5706,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>127.9453008124956</v>
+        <v>62.96824596572466</v>
       </c>
       <c r="C353">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>118.2708755357801</v>
+        <v>44.91102314577124</v>
       </c>
       <c r="C354">
         <v>3</v>
@@ -5728,7 +5728,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>118.5116028074889</v>
+        <v>45.12205669071391</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -5739,7 +5739,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>155.2191998433184</v>
+        <v>112.4010676105881</v>
       </c>
       <c r="C356">
         <v>2</v>
@@ -5750,7 +5750,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>150.0833101980363</v>
+        <v>105.1189802081432</v>
       </c>
       <c r="C357">
         <v>2</v>
@@ -5761,7 +5761,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>147.6109752017105</v>
+        <v>99.72963451251589</v>
       </c>
       <c r="C358">
         <v>2</v>
@@ -5772,7 +5772,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>171.2658751765804</v>
+        <v>135.0740537631117</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -5783,7 +5783,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>116.619037896906</v>
+        <v>47.29693436154187</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -5794,7 +5794,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>120.8801058900926</v>
+        <v>56.61271941887264</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -5805,7 +5805,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>124.787819918452</v>
+        <v>64.35060217278468</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -5816,7 +5816,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>142.0563268566381</v>
+        <v>93.15041599477696</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -5827,7 +5827,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>163.3554406807438</v>
+        <v>127.3891675143534</v>
       </c>
       <c r="C364">
         <v>4</v>
@@ -5838,7 +5838,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>173.0028901492689</v>
+        <v>140.8012784032872</v>
       </c>
       <c r="C365">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>130.3610371238278</v>
+        <v>80.60397012554654</v>
       </c>
       <c r="C366">
         <v>5</v>
@@ -5860,7 +5860,7 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>146.8638825579659</v>
+        <v>108.2404730218785</v>
       </c>
       <c r="C367">
         <v>3</v>
@@ -5871,7 +5871,7 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>138.2208377922808</v>
+        <v>96.04165762834376</v>
       </c>
       <c r="C368">
         <v>3</v>
@@ -5882,7 +5882,7 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>115.4469575172945</v>
+        <v>57.8013840664737</v>
       </c>
       <c r="C369">
         <v>4</v>
@@ -5893,7 +5893,7 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>120.1540677630183</v>
+        <v>68.01470429252781</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -5904,7 +5904,7 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>124.3261838873855</v>
+        <v>75.0066663703967</v>
       </c>
       <c r="C371">
         <v>3</v>
@@ -5915,7 +5915,7 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>131.7649422266788</v>
+        <v>86.6083136886985</v>
       </c>
       <c r="C372">
         <v>3</v>
@@ -5926,7 +5926,7 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>153.4828980701107</v>
+        <v>116.7304587500623</v>
       </c>
       <c r="C373">
         <v>5</v>
@@ -5937,7 +5937,7 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>150.6950563223625</v>
+        <v>116.2755348299891</v>
       </c>
       <c r="C374">
         <v>4</v>
@@ -5948,7 +5948,7 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>111.9866063420086</v>
+        <v>55.71355310873648</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>113.0530848760882</v>
+        <v>60.41522986797286</v>
       </c>
       <c r="C376">
         <v>3</v>
@@ -5970,7 +5970,7 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>159.9062225180746</v>
+        <v>127.534309109353</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -5981,7 +5981,7 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>108.0740486888504</v>
+        <v>54.23098745182499</v>
       </c>
       <c r="C378">
         <v>2</v>
@@ -5992,7 +5992,7 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>135</v>
+        <v>96.51942809610924</v>
       </c>
       <c r="C379">
         <v>3</v>
@@ -6003,7 +6003,7 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>119.4068674741951</v>
+        <v>75.69015788066504</v>
       </c>
       <c r="C380">
         <v>2</v>
@@ -6014,7 +6014,7 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>125.1958465764739</v>
+        <v>84.38601779915912</v>
       </c>
       <c r="C381">
         <v>1</v>
@@ -6025,7 +6025,7 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>111.9464157532522</v>
+        <v>67.11929677819934</v>
       </c>
       <c r="C382">
         <v>2</v>
@@ -6036,7 +6036,7 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>125.3993620398445</v>
+        <v>86.55634003352961</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -6047,7 +6047,7 @@
         <v>385</v>
       </c>
       <c r="B384">
-        <v>108.1711606667877</v>
+        <v>63.07138812488591</v>
       </c>
       <c r="C384">
         <v>2</v>
@@ -6058,7 +6058,7 @@
         <v>386</v>
       </c>
       <c r="B385">
-        <v>149.2012064294388</v>
+        <v>119.4738465104393</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>387</v>
       </c>
       <c r="B386">
-        <v>143.5583505059876</v>
+        <v>116.9700816448377</v>
       </c>
       <c r="C386">
         <v>3</v>
@@ -6080,7 +6080,7 @@
         <v>388</v>
       </c>
       <c r="B387">
-        <v>105.323311759553</v>
+        <v>62.62587324740471</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -6091,7 +6091,7 @@
         <v>389</v>
       </c>
       <c r="B388">
-        <v>127.4127152210485</v>
+        <v>94.64142856064674</v>
       </c>
       <c r="C388">
         <v>3</v>
@@ -6102,7 +6102,7 @@
         <v>390</v>
       </c>
       <c r="B389">
-        <v>138.77319625922</v>
+        <v>109.2931836849856</v>
       </c>
       <c r="C389">
         <v>4</v>
@@ -6113,7 +6113,7 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>110.0727032465361</v>
+        <v>76.60939890117922</v>
       </c>
       <c r="C390">
         <v>2</v>
@@ -6124,7 +6124,7 @@
         <v>392</v>
       </c>
       <c r="B391">
-        <v>102.2007827758672</v>
+        <v>70.68238818828917</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -6135,7 +6135,7 @@
         <v>393</v>
       </c>
       <c r="B392">
-        <v>127.0157470552372</v>
+        <v>105.4229576515476</v>
       </c>
       <c r="C392">
         <v>3</v>
@@ -6146,7 +6146,7 @@
         <v>394</v>
       </c>
       <c r="B393">
-        <v>97.41663102366043</v>
+        <v>65.76473218982953</v>
       </c>
       <c r="C393">
         <v>3</v>
@@ -6157,7 +6157,7 @@
         <v>395</v>
       </c>
       <c r="B394">
-        <v>112.5077775089349</v>
+        <v>85.7962703152066</v>
       </c>
       <c r="C394">
         <v>4</v>
@@ -6168,7 +6168,7 @@
         <v>396</v>
       </c>
       <c r="B395">
-        <v>129.634100452003</v>
+        <v>107.0046727951635</v>
       </c>
       <c r="C395">
         <v>4</v>
@@ -6179,7 +6179,7 @@
         <v>397</v>
       </c>
       <c r="B396">
-        <v>133.6600164596728</v>
+        <v>114.8564321228898</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>398</v>
       </c>
       <c r="B397">
-        <v>120</v>
+        <v>96.93812459502195</v>
       </c>
       <c r="C397">
         <v>2</v>
@@ -6201,7 +6201,7 @@
         <v>399</v>
       </c>
       <c r="B398">
-        <v>96.0260381354974</v>
+        <v>68.65857557508748</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -6212,7 +6212,7 @@
         <v>400</v>
       </c>
       <c r="B399">
-        <v>155</v>
+        <v>142.7795503564849</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>401</v>
       </c>
       <c r="B400">
-        <v>106.5504575306929</v>
+        <v>87.00574693662483</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -6234,7 +6234,7 @@
         <v>402</v>
       </c>
       <c r="B401">
-        <v>92.04890004774636</v>
+        <v>70.11419257183242</v>
       </c>
       <c r="C401">
         <v>2</v>
@@ -6245,7 +6245,7 @@
         <v>403</v>
       </c>
       <c r="B402">
-        <v>101.965680500843</v>
+        <v>84.05950273467003</v>
       </c>
       <c r="C402">
         <v>3</v>
@@ -6256,7 +6256,7 @@
         <v>404</v>
       </c>
       <c r="B403">
-        <v>110.1135777277262</v>
+        <v>93.60555539069249</v>
       </c>
       <c r="C403">
         <v>3</v>
@@ -6267,7 +6267,7 @@
         <v>405</v>
       </c>
       <c r="B404">
-        <v>90.27181176868004</v>
+        <v>72.24956747275377</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -6278,7 +6278,7 @@
         <v>406</v>
       </c>
       <c r="B405">
-        <v>103.4456378974</v>
+        <v>87.65842800324451</v>
       </c>
       <c r="C405">
         <v>2</v>
@@ -6289,7 +6289,7 @@
         <v>407</v>
       </c>
       <c r="B406">
-        <v>125.9364919314493</v>
+        <v>120.1041214946431</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -6300,7 +6300,7 @@
         <v>408</v>
       </c>
       <c r="B407">
-        <v>88.29496021857646</v>
+        <v>78.84795495128583</v>
       </c>
       <c r="C407">
         <v>2</v>
@@ -6311,7 +6311,7 @@
         <v>409</v>
       </c>
       <c r="B408">
-        <v>119.5198728245642</v>
+        <v>111.8033988749895</v>
       </c>
       <c r="C408">
         <v>3</v>
@@ -6322,7 +6322,7 @@
         <v>410</v>
       </c>
       <c r="B409">
-        <v>96.64884893261792</v>
+        <v>90.21086409075129</v>
       </c>
       <c r="C409">
         <v>3</v>
@@ -6333,7 +6333,7 @@
         <v>411</v>
       </c>
       <c r="B410">
-        <v>85.37564055396598</v>
+        <v>77.52418977325722</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -6344,7 +6344,7 @@
         <v>412</v>
       </c>
       <c r="B411">
-        <v>90.82400563727631</v>
+        <v>83.00602387778854</v>
       </c>
       <c r="C411">
         <v>2</v>
@@ -6355,7 +6355,7 @@
         <v>413</v>
       </c>
       <c r="B412">
-        <v>108.8531120363584</v>
+        <v>102.0686043796034</v>
       </c>
       <c r="C412">
         <v>3</v>
@@ -6366,7 +6366,7 @@
         <v>414</v>
       </c>
       <c r="B413">
-        <v>87.59566199304621</v>
+        <v>84.15461959987698</v>
       </c>
       <c r="C413">
         <v>3</v>
@@ -6377,7 +6377,7 @@
         <v>415</v>
       </c>
       <c r="B414">
-        <v>81.02468759581859</v>
+        <v>81.00617260431454</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -6388,7 +6388,7 @@
         <v>416</v>
       </c>
       <c r="B415">
-        <v>121.8277472499594</v>
+        <v>121.0826164236634</v>
       </c>
       <c r="C415">
         <v>2</v>
@@ -6399,7 +6399,7 @@
         <v>417</v>
       </c>
       <c r="B416">
-        <v>94.33981132056604</v>
+        <v>96.56603957913983</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>418</v>
       </c>
       <c r="B417">
-        <v>89</v>
+        <v>90.37698822156003</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -6421,7 +6421,7 @@
         <v>419</v>
       </c>
       <c r="B418">
-        <v>104.3503713457695</v>
+        <v>105.2615789355261</v>
       </c>
       <c r="C418">
         <v>3</v>
@@ -6432,7 +6432,7 @@
         <v>420</v>
       </c>
       <c r="B419">
-        <v>124.1974234837422</v>
+        <v>124.7397290361014</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -6443,7 +6443,7 @@
         <v>421</v>
       </c>
       <c r="B420">
-        <v>100.4241006930109</v>
+        <v>104.2017274328982</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -6454,7 +6454,7 @@
         <v>422</v>
       </c>
       <c r="B421">
-        <v>98.60020283954795</v>
+        <v>102.4158190906073</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -6465,7 +6465,7 @@
         <v>423</v>
       </c>
       <c r="B422">
-        <v>81.25269226308751</v>
+        <v>85.37564055396598</v>
       </c>
       <c r="C422">
         <v>3</v>
@@ -6476,7 +6476,7 @@
         <v>424</v>
       </c>
       <c r="B423">
-        <v>90.7358804442873</v>
+        <v>97.12878049270464</v>
       </c>
       <c r="C423">
         <v>3</v>
@@ -6487,7 +6487,7 @@
         <v>425</v>
       </c>
       <c r="B424">
-        <v>97.61659694949419</v>
+        <v>103.4698023579827</v>
       </c>
       <c r="C424">
         <v>3</v>
@@ -6498,7 +6498,7 @@
         <v>426</v>
       </c>
       <c r="B425">
-        <v>134.2721117730707</v>
+        <v>138.2244551445221</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -6509,7 +6509,7 @@
         <v>427</v>
       </c>
       <c r="B426">
-        <v>106.7754653466797</v>
+        <v>113.4548368294627</v>
       </c>
       <c r="C426">
         <v>4</v>
@@ -6520,7 +6520,7 @@
         <v>428</v>
       </c>
       <c r="B427">
-        <v>80.05623023850174</v>
+        <v>91.706052144883</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -6531,7 +6531,7 @@
         <v>429</v>
       </c>
       <c r="B428">
-        <v>99.15644204992432</v>
+        <v>109.4029250066012</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -6542,7 +6542,7 @@
         <v>430</v>
       </c>
       <c r="B429">
-        <v>78.92401408950256</v>
+        <v>94.2443632266673</v>
       </c>
       <c r="C429">
         <v>2</v>
@@ -6553,7 +6553,7 @@
         <v>431</v>
       </c>
       <c r="B430">
-        <v>81.39410298049853</v>
+        <v>95.63472172804185</v>
       </c>
       <c r="C430">
         <v>2</v>
@@ -6564,7 +6564,7 @@
         <v>432</v>
       </c>
       <c r="B431">
-        <v>70.45565981523414</v>
+        <v>92.43916918709297</v>
       </c>
       <c r="C431">
         <v>4</v>
@@ -6575,7 +6575,7 @@
         <v>433</v>
       </c>
       <c r="B432">
-        <v>75.76938695805846</v>
+        <v>96.16652224137046</v>
       </c>
       <c r="C432">
         <v>2</v>
@@ -6586,7 +6586,7 @@
         <v>434</v>
       </c>
       <c r="B433">
-        <v>76.55716818169282</v>
+        <v>96.76776322722355</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         <v>435</v>
       </c>
       <c r="B434">
-        <v>104.0624812312295</v>
+        <v>119.3314711214104</v>
       </c>
       <c r="C434">
         <v>3</v>
@@ -6608,7 +6608,7 @@
         <v>436</v>
       </c>
       <c r="B435">
-        <v>107.298648640139</v>
+        <v>124.7397290361014</v>
       </c>
       <c r="C435">
         <v>4</v>
@@ -6619,7 +6619,7 @@
         <v>437</v>
       </c>
       <c r="B436">
-        <v>75.13321502504735</v>
+        <v>101.2422836565829</v>
       </c>
       <c r="C436">
         <v>3</v>
@@ -6630,7 +6630,7 @@
         <v>438</v>
       </c>
       <c r="B437">
-        <v>111.400179533069</v>
+        <v>129.495173655237</v>
       </c>
       <c r="C437">
         <v>3</v>
@@ -6641,7 +6641,7 @@
         <v>439</v>
       </c>
       <c r="B438">
-        <v>66</v>
+        <v>96.00520819205592</v>
       </c>
       <c r="C438">
         <v>2</v>
@@ -6652,7 +6652,7 @@
         <v>440</v>
       </c>
       <c r="B439">
-        <v>67.44627491566899</v>
+        <v>98.84331034521254</v>
       </c>
       <c r="C439">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>441</v>
       </c>
       <c r="B440">
-        <v>90.52071586106685</v>
+        <v>115.1216747619665</v>
       </c>
       <c r="C440">
         <v>3</v>
@@ -6674,7 +6674,7 @@
         <v>442</v>
       </c>
       <c r="B441">
-        <v>75.47184905645283</v>
+        <v>105.4751155486449</v>
       </c>
       <c r="C441">
         <v>3</v>
@@ -6685,7 +6685,7 @@
         <v>443</v>
       </c>
       <c r="B442">
-        <v>81.68843247363729</v>
+        <v>112.2942563090384</v>
       </c>
       <c r="C442">
         <v>4</v>
@@ -6696,7 +6696,7 @@
         <v>444</v>
       </c>
       <c r="B443">
-        <v>63.28506932918696</v>
+        <v>99.24716620639605</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -6707,7 +6707,7 @@
         <v>445</v>
       </c>
       <c r="B444">
-        <v>78.00640999302557</v>
+        <v>108.7474137623511</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -6718,7 +6718,7 @@
         <v>446</v>
       </c>
       <c r="B445">
-        <v>86.97700845625813</v>
+        <v>117.6605286406618</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>447</v>
       </c>
       <c r="B446">
-        <v>61.03277807866851</v>
+        <v>101.044544632553</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -6740,7 +6740,7 @@
         <v>448</v>
       </c>
       <c r="B447">
-        <v>84.86459803710851</v>
+        <v>116.4688799637053</v>
       </c>
       <c r="C447">
         <v>3</v>
@@ -6751,7 +6751,7 @@
         <v>449</v>
       </c>
       <c r="B448">
-        <v>72.00694410957877</v>
+        <v>113.4636505670428</v>
       </c>
       <c r="C448">
         <v>3</v>
@@ -6762,7 +6762,7 @@
         <v>450</v>
       </c>
       <c r="B449">
-        <v>77.79460135510689</v>
+        <v>119.4194289050153</v>
       </c>
       <c r="C449">
         <v>2</v>
@@ -6773,7 +6773,7 @@
         <v>451</v>
       </c>
       <c r="B450">
-        <v>64.66065264130884</v>
+        <v>111.9732110819369</v>
       </c>
       <c r="C450">
         <v>2</v>
@@ -6784,7 +6784,7 @@
         <v>452</v>
       </c>
       <c r="B451">
-        <v>108.4066418629412</v>
+        <v>142.5236822426364</v>
       </c>
       <c r="C451">
         <v>2</v>
@@ -6795,7 +6795,7 @@
         <v>453</v>
       </c>
       <c r="B452">
-        <v>58.18075283115542</v>
+        <v>111.400179533069</v>
       </c>
       <c r="C452">
         <v>2</v>
@@ -6806,7 +6806,7 @@
         <v>454</v>
       </c>
       <c r="B453">
-        <v>77.15568676384133</v>
+        <v>123.4341929936758</v>
       </c>
       <c r="C453">
         <v>3</v>
@@ -6817,7 +6817,7 @@
         <v>455</v>
       </c>
       <c r="B454">
-        <v>92.0869154657707</v>
+        <v>133.1352695569435</v>
       </c>
       <c r="C454">
         <v>4</v>
@@ -6828,7 +6828,7 @@
         <v>456</v>
       </c>
       <c r="B455">
-        <v>51.35172830587107</v>
+        <v>111.2205017071943</v>
       </c>
       <c r="C455">
         <v>2</v>
@@ -6839,7 +6839,7 @@
         <v>457</v>
       </c>
       <c r="B456">
-        <v>52.55473337388365</v>
+        <v>114.7562634456176</v>
       </c>
       <c r="C456">
         <v>4</v>
@@ -6850,7 +6850,7 @@
         <v>458</v>
       </c>
       <c r="B457">
-        <v>59.64059020499378</v>
+        <v>117.7200067957864</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -6861,7 +6861,7 @@
         <v>459</v>
       </c>
       <c r="B458">
-        <v>53.71219600798314</v>
+        <v>117.6860229593982</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -6872,7 +6872,7 @@
         <v>460</v>
       </c>
       <c r="B459">
-        <v>75.6042326857432</v>
+        <v>131.0610544746226</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -6883,7 +6883,7 @@
         <v>461</v>
       </c>
       <c r="B460">
-        <v>84.21995013059554</v>
+        <v>139.9428454762872</v>
       </c>
       <c r="C460">
         <v>3</v>
@@ -6894,7 +6894,7 @@
         <v>462</v>
       </c>
       <c r="B461">
-        <v>125.5428213797985</v>
+        <v>169.729196074217</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -6905,7 +6905,7 @@
         <v>463</v>
       </c>
       <c r="B462">
-        <v>111.3283432015405</v>
+        <v>162.6068879229905</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -6916,7 +6916,7 @@
         <v>464</v>
       </c>
       <c r="B463">
-        <v>39.82461550347976</v>
+        <v>128.5651585772755</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -6927,7 +6927,7 @@
         <v>465</v>
       </c>
       <c r="B464">
-        <v>66.03786792439622</v>
+        <v>138.3979768638256</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -6938,7 +6938,7 @@
         <v>466</v>
       </c>
       <c r="B465">
-        <v>121.1651765153668</v>
+        <v>171.3300907604966</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -6949,7 +6949,7 @@
         <v>467</v>
       </c>
       <c r="B466">
-        <v>77.87810988975015</v>
+        <v>147.648230602334</v>
       </c>
       <c r="C466">
         <v>2</v>
@@ -6960,7 +6960,7 @@
         <v>468</v>
       </c>
       <c r="B467">
-        <v>112.6410227226298</v>
+        <v>168.3716128092856</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -6971,7 +6971,7 @@
         <v>469</v>
       </c>
       <c r="B468">
-        <v>118.1397477566293</v>
+        <v>173.0028901492689</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -6982,7 +6982,7 @@
         <v>470</v>
       </c>
       <c r="B469">
-        <v>124.907966119059</v>
+        <v>177.6541584089717</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>471</v>
       </c>
       <c r="B470">
-        <v>81.70679286326198</v>
+        <v>151.8189711465599</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -7004,7 +7004,7 @@
         <v>472</v>
       </c>
       <c r="B471">
-        <v>114.2365965879586</v>
+        <v>174.14074767268</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>473</v>
       </c>
       <c r="B472">
-        <v>87.93179174792243</v>
+        <v>159.3267083699403</v>
       </c>
       <c r="C472">
         <v>2</v>
@@ -7026,7 +7026,7 @@
         <v>474</v>
       </c>
       <c r="B473">
-        <v>106.2308806327049</v>
+        <v>170</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -7037,7 +7037,7 @@
         <v>475</v>
       </c>
       <c r="B474">
-        <v>96.6902270139025</v>
+        <v>171.9651127409278</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -7048,7 +7048,7 @@
         <v>476</v>
       </c>
       <c r="B475">
-        <v>98.73196037757987</v>
+        <v>178.6309043810729</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -7059,7 +7059,7 @@
         <v>477</v>
       </c>
       <c r="B476">
-        <v>309.1100127786222</v>
+        <v>464.2628565801921</v>
       </c>
       <c r="C476">
         <v>2</v>
@@ -7070,7 +7070,7 @@
         <v>478</v>
       </c>
       <c r="B477">
-        <v>313.676585036244</v>
+        <v>468.3438907469596</v>
       </c>
       <c r="C477">
         <v>3</v>
@@ -7081,7 +7081,7 @@
         <v>479</v>
       </c>
       <c r="B478">
-        <v>323.0975085016905</v>
+        <v>475</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>480</v>
       </c>
       <c r="B479">
-        <v>312.795460325114</v>
+        <v>468.46344574577</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -7103,7 +7103,7 @@
         <v>481</v>
       </c>
       <c r="B480">
-        <v>320.9298988875919</v>
+        <v>475.6185446342478</v>
       </c>
       <c r="C480">
         <v>3</v>
@@ -7114,7 +7114,7 @@
         <v>482</v>
       </c>
       <c r="B481">
-        <v>318.4415173936966</v>
+        <v>474.6535578714227</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>483</v>
       </c>
       <c r="B482">
-        <v>325.8972230627318</v>
+        <v>479.9854164451249</v>
       </c>
       <c r="C482">
         <v>1</v>
